--- a/data/134/DEUSTATIS/old/Index of production in manufacturing (2-3-4-digit codes).xlsx
+++ b/data/134/DEUSTATIS/old/Index of production in manufacturing (2-3-4-digit codes).xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="64">
   <si>
     <t>Index of production in manufacturing: Germany, months,
 original and adjusted data, economic activities
@@ -206,7 +206,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-10-07 / 10:03:03</t>
+    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 10:58:03</t>
   </si>
 </sst>
 </file>
@@ -13434,25 +13434,25 @@
         <v>110.6</v>
       </c>
       <c r="NA10" t="n" s="10">
-        <v>102.1</v>
+        <v>101.3</v>
       </c>
       <c r="NB10" t="n" s="10">
-        <v>103.6</v>
+        <v>102.8</v>
       </c>
       <c r="NC10" t="n" s="10">
-        <v>100.5</v>
+        <v>99.8</v>
       </c>
       <c r="ND10" t="n" s="10">
-        <v>100.8</v>
+        <v>100.1</v>
       </c>
       <c r="NE10" t="n" s="10">
-        <v>99.2</v>
-      </c>
-      <c r="NF10" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NG10" t="s" s="10">
-        <v>52</v>
+        <v>98.6</v>
+      </c>
+      <c r="NF10" t="n" s="10">
+        <v>96.4</v>
+      </c>
+      <c r="NG10" t="n" s="10">
+        <v>96.5</v>
       </c>
       <c r="NH10" t="s" s="10">
         <v>52</v>
@@ -14555,25 +14555,25 @@
         <v>108.0</v>
       </c>
       <c r="NA11" t="n" s="10">
-        <v>101.8</v>
+        <v>101.0</v>
       </c>
       <c r="NB11" t="n" s="10">
-        <v>104.9</v>
+        <v>104.1</v>
       </c>
       <c r="NC11" t="n" s="10">
-        <v>99.0</v>
+        <v>98.3</v>
       </c>
       <c r="ND11" t="n" s="10">
-        <v>101.1</v>
+        <v>100.4</v>
       </c>
       <c r="NE11" t="n" s="10">
-        <v>99.2</v>
-      </c>
-      <c r="NF11" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NG11" t="s" s="10">
-        <v>52</v>
+        <v>98.6</v>
+      </c>
+      <c r="NF11" t="n" s="10">
+        <v>95.4</v>
+      </c>
+      <c r="NG11" t="n" s="10">
+        <v>97.1</v>
       </c>
       <c r="NH11" t="s" s="10">
         <v>52</v>
@@ -15676,25 +15676,25 @@
         <v>100.1</v>
       </c>
       <c r="NA12" t="n" s="10">
-        <v>100.8</v>
+        <v>100.0</v>
       </c>
       <c r="NB12" t="n" s="10">
-        <v>103.8</v>
+        <v>103.0</v>
       </c>
       <c r="NC12" t="n" s="10">
-        <v>98.9</v>
+        <v>98.3</v>
       </c>
       <c r="ND12" t="n" s="10">
-        <v>98.6</v>
+        <v>97.9</v>
       </c>
       <c r="NE12" t="n" s="10">
-        <v>100.9</v>
-      </c>
-      <c r="NF12" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NG12" t="s" s="10">
-        <v>52</v>
+        <v>100.3</v>
+      </c>
+      <c r="NF12" t="n" s="10">
+        <v>101.4</v>
+      </c>
+      <c r="NG12" t="n" s="10">
+        <v>97.3</v>
       </c>
       <c r="NH12" t="s" s="10">
         <v>52</v>
@@ -16572,10 +16572,10 @@
         <v>100.0</v>
       </c>
       <c r="KD13" t="n" s="10">
-        <v>99.1</v>
+        <v>99.0</v>
       </c>
       <c r="KE13" t="n" s="10">
-        <v>99.4</v>
+        <v>99.3</v>
       </c>
       <c r="KF13" t="n" s="10">
         <v>100.0</v>
@@ -16584,22 +16584,22 @@
         <v>100.3</v>
       </c>
       <c r="KH13" t="n" s="10">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="KI13" t="n" s="10">
         <v>101.0</v>
       </c>
       <c r="KJ13" t="n" s="10">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="KK13" t="n" s="10">
         <v>100.3</v>
       </c>
       <c r="KL13" t="n" s="10">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="KM13" t="n" s="10">
-        <v>100.0</v>
+        <v>100.1</v>
       </c>
       <c r="KN13" t="n" s="10">
         <v>100.9</v>
@@ -16611,31 +16611,31 @@
         <v>100.3</v>
       </c>
       <c r="KQ13" t="n" s="10">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="KR13" t="n" s="10">
+        <v>99.7</v>
+      </c>
+      <c r="KS13" t="n" s="10">
+        <v>99.4</v>
+      </c>
+      <c r="KT13" t="n" s="10">
+        <v>101.8</v>
+      </c>
+      <c r="KU13" t="n" s="10">
         <v>99.8</v>
-      </c>
-      <c r="KS13" t="n" s="10">
-        <v>99.3</v>
-      </c>
-      <c r="KT13" t="n" s="10">
-        <v>101.7</v>
-      </c>
-      <c r="KU13" t="n" s="10">
-        <v>99.9</v>
       </c>
       <c r="KV13" t="n" s="10">
         <v>99.0</v>
       </c>
       <c r="KW13" t="n" s="10">
+        <v>99.5</v>
+      </c>
+      <c r="KX13" t="n" s="10">
+        <v>100.2</v>
+      </c>
+      <c r="KY13" t="n" s="10">
         <v>99.4</v>
-      </c>
-      <c r="KX13" t="n" s="10">
-        <v>100.1</v>
-      </c>
-      <c r="KY13" t="n" s="10">
-        <v>99.5</v>
       </c>
       <c r="KZ13" t="n" s="10">
         <v>98.0</v>
@@ -16647,22 +16647,22 @@
         <v>99.6</v>
       </c>
       <c r="LC13" t="n" s="10">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="LD13" t="n" s="10">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="LE13" t="n" s="10">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="LF13" t="n" s="10">
-        <v>99.0</v>
+        <v>98.9</v>
       </c>
       <c r="LG13" t="n" s="10">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="LH13" t="n" s="10">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
       <c r="LI13" t="n" s="10">
         <v>102.7</v>
@@ -16671,13 +16671,13 @@
         <v>103.5</v>
       </c>
       <c r="LK13" t="n" s="10">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="LL13" t="n" s="10">
         <v>105.4</v>
       </c>
       <c r="LM13" t="n" s="10">
-        <v>104.0</v>
+        <v>104.1</v>
       </c>
       <c r="LN13" t="n" s="10">
         <v>102.3</v>
@@ -16686,22 +16686,22 @@
         <v>101.2</v>
       </c>
       <c r="LP13" t="n" s="10">
-        <v>101.0</v>
+        <v>100.9</v>
       </c>
       <c r="LQ13" t="n" s="10">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="LR13" t="n" s="10">
         <v>102.6</v>
       </c>
       <c r="LS13" t="n" s="10">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="LT13" t="n" s="10">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="LU13" t="n" s="10">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="LV13" t="n" s="10">
         <v>98.6</v>
@@ -16710,112 +16710,112 @@
         <v>97.6</v>
       </c>
       <c r="LX13" t="n" s="10">
-        <v>96.4</v>
+        <v>96.6</v>
       </c>
       <c r="LY13" t="n" s="10">
         <v>97.5</v>
       </c>
       <c r="LZ13" t="n" s="10">
+        <v>98.1</v>
+      </c>
+      <c r="MA13" t="n" s="10">
         <v>98.0</v>
       </c>
-      <c r="MA13" t="n" s="10">
-        <v>97.9</v>
-      </c>
       <c r="MB13" t="n" s="10">
-        <v>96.0</v>
+        <v>96.2</v>
       </c>
       <c r="MC13" t="n" s="10">
-        <v>99.0</v>
+        <v>99.1</v>
       </c>
       <c r="MD13" t="n" s="10">
-        <v>98.4</v>
+        <v>96.6</v>
       </c>
       <c r="ME13" t="n" s="10">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="MF13" t="n" s="10">
-        <v>96.9</v>
+        <v>97.0</v>
       </c>
       <c r="MG13" t="n" s="10">
-        <v>96.9</v>
+        <v>97.0</v>
       </c>
       <c r="MH13" t="n" s="10">
+        <v>95.7</v>
+      </c>
+      <c r="MI13" t="n" s="10">
+        <v>96.4</v>
+      </c>
+      <c r="MJ13" t="n" s="10">
         <v>95.5</v>
       </c>
-      <c r="MI13" t="n" s="10">
-        <v>96.2</v>
-      </c>
-      <c r="MJ13" t="n" s="10">
-        <v>95.3</v>
-      </c>
       <c r="MK13" t="n" s="10">
-        <v>93.6</v>
+        <v>94.0</v>
       </c>
       <c r="ML13" t="n" s="10">
-        <v>94.7</v>
+        <v>95.1</v>
       </c>
       <c r="MM13" t="n" s="10">
-        <v>95.3</v>
+        <v>95.7</v>
       </c>
       <c r="MN13" t="n" s="10">
-        <v>96.4</v>
+        <v>96.7</v>
       </c>
       <c r="MO13" t="n" s="10">
-        <v>91.4</v>
+        <v>91.9</v>
       </c>
       <c r="MP13" t="n" s="10">
-        <v>89.6</v>
+        <v>85.9</v>
       </c>
       <c r="MQ13" t="n" s="10">
-        <v>91.4</v>
+        <v>91.8</v>
       </c>
       <c r="MR13" t="n" s="10">
-        <v>93.5</v>
+        <v>94.0</v>
       </c>
       <c r="MS13" t="n" s="10">
-        <v>94.5</v>
+        <v>94.6</v>
       </c>
       <c r="MT13" t="n" s="10">
         <v>96.4</v>
       </c>
       <c r="MU13" t="n" s="10">
-        <v>97.3</v>
+        <v>98.3</v>
       </c>
       <c r="MV13" t="n" s="10">
-        <v>98.7</v>
+        <v>99.1</v>
       </c>
       <c r="MW13" t="n" s="10">
-        <v>99.9</v>
+        <v>100.2</v>
       </c>
       <c r="MX13" t="n" s="10">
-        <v>98.9</v>
+        <v>99.1</v>
       </c>
       <c r="MY13" t="n" s="10">
-        <v>97.6</v>
+        <v>98.0</v>
       </c>
       <c r="MZ13" t="n" s="10">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="NA13" t="n" s="10">
         <v>102.8</v>
       </c>
       <c r="NB13" t="n" s="10">
-        <v>105.9</v>
+        <v>101.9</v>
       </c>
       <c r="NC13" t="n" s="10">
-        <v>103.3</v>
+        <v>103.0</v>
       </c>
       <c r="ND13" t="n" s="10">
-        <v>101.7</v>
+        <v>100.7</v>
       </c>
       <c r="NE13" t="n" s="10">
-        <v>102.5</v>
-      </c>
-      <c r="NF13" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NG13" t="s" s="10">
-        <v>52</v>
+        <v>101.3</v>
+      </c>
+      <c r="NF13" t="n" s="10">
+        <v>101.6</v>
+      </c>
+      <c r="NG13" t="n" s="10">
+        <v>97.9</v>
       </c>
       <c r="NH13" t="s" s="10">
         <v>52</v>
@@ -17261,16 +17261,16 @@
         <v>95.7</v>
       </c>
       <c r="EP14" t="n" s="10">
-        <v>95.5</v>
+        <v>95.4</v>
       </c>
       <c r="EQ14" t="n" s="10">
-        <v>95.1</v>
+        <v>95.0</v>
       </c>
       <c r="ER14" t="n" s="10">
         <v>94.8</v>
       </c>
       <c r="ES14" t="n" s="10">
-        <v>94.7</v>
+        <v>94.6</v>
       </c>
       <c r="ET14" t="n" s="10">
         <v>94.5</v>
@@ -17279,7 +17279,7 @@
         <v>94.3</v>
       </c>
       <c r="EV14" t="n" s="10">
-        <v>94.0</v>
+        <v>93.9</v>
       </c>
       <c r="EW14" t="n" s="10">
         <v>93.5</v>
@@ -17396,7 +17396,7 @@
         <v>105.7</v>
       </c>
       <c r="GI14" t="n" s="10">
-        <v>106.0</v>
+        <v>105.9</v>
       </c>
       <c r="GJ14" t="n" s="10">
         <v>106.3</v>
@@ -17420,7 +17420,7 @@
         <v>106.8</v>
       </c>
       <c r="GQ14" t="n" s="10">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="GR14" t="n" s="10">
         <v>106.7</v>
@@ -17435,13 +17435,13 @@
         <v>106.7</v>
       </c>
       <c r="GV14" t="n" s="10">
-        <v>106.9</v>
+        <v>107.0</v>
       </c>
       <c r="GW14" t="n" s="10">
         <v>107.1</v>
       </c>
       <c r="GX14" t="n" s="10">
-        <v>107.2</v>
+        <v>107.3</v>
       </c>
       <c r="GY14" t="n" s="10">
         <v>107.3</v>
@@ -17450,10 +17450,10 @@
         <v>107.1</v>
       </c>
       <c r="HA14" t="n" s="10">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="HB14" t="n" s="10">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="HC14" t="n" s="10">
         <v>104.1</v>
@@ -17480,7 +17480,7 @@
         <v>89.2</v>
       </c>
       <c r="HK14" t="n" s="10">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="HL14" t="n" s="10">
         <v>86.7</v>
@@ -17489,7 +17489,7 @@
         <v>86.2</v>
       </c>
       <c r="HN14" t="n" s="10">
-        <v>86.4</v>
+        <v>86.3</v>
       </c>
       <c r="HO14" t="n" s="10">
         <v>87.0</v>
@@ -17498,13 +17498,13 @@
         <v>88.1</v>
       </c>
       <c r="HQ14" t="n" s="10">
-        <v>89.6</v>
+        <v>89.5</v>
       </c>
       <c r="HR14" t="n" s="10">
         <v>91.3</v>
       </c>
       <c r="HS14" t="n" s="10">
-        <v>93.1</v>
+        <v>93.2</v>
       </c>
       <c r="HT14" t="n" s="10">
         <v>95.0</v>
@@ -17597,13 +17597,13 @@
         <v>100.8</v>
       </c>
       <c r="IX14" t="n" s="10">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="IY14" t="n" s="10">
         <v>100.9</v>
       </c>
       <c r="IZ14" t="n" s="10">
-        <v>100.9</v>
+        <v>101.0</v>
       </c>
       <c r="JA14" t="n" s="10">
         <v>101.0</v>
@@ -17624,7 +17624,7 @@
         <v>101.0</v>
       </c>
       <c r="JG14" t="n" s="10">
-        <v>101.1</v>
+        <v>101.0</v>
       </c>
       <c r="JH14" t="n" s="10">
         <v>101.2</v>
@@ -17678,7 +17678,7 @@
         <v>100.4</v>
       </c>
       <c r="JY14" t="n" s="10">
-        <v>100.1</v>
+        <v>100.0</v>
       </c>
       <c r="JZ14" t="n" s="10">
         <v>99.8</v>
@@ -17693,16 +17693,16 @@
         <v>99.5</v>
       </c>
       <c r="KD14" t="n" s="10">
-        <v>99.6</v>
+        <v>99.5</v>
       </c>
       <c r="KE14" t="n" s="10">
         <v>99.6</v>
       </c>
       <c r="KF14" t="n" s="10">
+        <v>99.7</v>
+      </c>
+      <c r="KG14" t="n" s="10">
         <v>99.8</v>
-      </c>
-      <c r="KG14" t="n" s="10">
-        <v>99.9</v>
       </c>
       <c r="KH14" t="n" s="10">
         <v>99.9</v>
@@ -17717,7 +17717,7 @@
         <v>100.0</v>
       </c>
       <c r="KL14" t="n" s="10">
-        <v>100.0</v>
+        <v>100.1</v>
       </c>
       <c r="KM14" t="n" s="10">
         <v>100.1</v>
@@ -17726,7 +17726,7 @@
         <v>100.0</v>
       </c>
       <c r="KO14" t="n" s="10">
-        <v>99.9</v>
+        <v>100.0</v>
       </c>
       <c r="KP14" t="n" s="10">
         <v>99.9</v>
@@ -17840,103 +17840,103 @@
         <v>97.9</v>
       </c>
       <c r="MA14" t="n" s="10">
-        <v>97.6</v>
+        <v>97.5</v>
       </c>
       <c r="MB14" t="n" s="10">
         <v>97.3</v>
       </c>
       <c r="MC14" t="n" s="10">
-        <v>97.1</v>
+        <v>97.0</v>
       </c>
       <c r="MD14" t="n" s="10">
-        <v>97.0</v>
+        <v>96.9</v>
       </c>
       <c r="ME14" t="n" s="10">
-        <v>97.0</v>
+        <v>96.8</v>
       </c>
       <c r="MF14" t="n" s="10">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="MG14" t="n" s="10">
         <v>96.6</v>
       </c>
       <c r="MH14" t="n" s="10">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="MI14" t="n" s="10">
-        <v>95.8</v>
+        <v>96.0</v>
       </c>
       <c r="MJ14" t="n" s="10">
-        <v>95.2</v>
+        <v>95.5</v>
       </c>
       <c r="MK14" t="n" s="10">
+        <v>95.0</v>
+      </c>
+      <c r="ML14" t="n" s="10">
+        <v>94.7</v>
+      </c>
+      <c r="MM14" t="n" s="10">
+        <v>94.5</v>
+      </c>
+      <c r="MN14" t="n" s="10">
+        <v>94.3</v>
+      </c>
+      <c r="MO14" t="n" s="10">
+        <v>94.2</v>
+      </c>
+      <c r="MP14" t="n" s="10">
+        <v>94.3</v>
+      </c>
+      <c r="MQ14" t="n" s="10">
         <v>94.6</v>
       </c>
-      <c r="ML14" t="n" s="10">
-        <v>94.1</v>
-      </c>
-      <c r="MM14" t="n" s="10">
-        <v>93.8</v>
-      </c>
-      <c r="MN14" t="n" s="10">
-        <v>93.5</v>
-      </c>
-      <c r="MO14" t="n" s="10">
-        <v>93.3</v>
-      </c>
-      <c r="MP14" t="n" s="10">
-        <v>93.3</v>
-      </c>
-      <c r="MQ14" t="n" s="10">
-        <v>93.7</v>
-      </c>
       <c r="MR14" t="n" s="10">
-        <v>94.2</v>
+        <v>95.0</v>
       </c>
       <c r="MS14" t="n" s="10">
-        <v>94.9</v>
+        <v>95.6</v>
       </c>
       <c r="MT14" t="n" s="10">
-        <v>95.7</v>
+        <v>96.4</v>
       </c>
       <c r="MU14" t="n" s="10">
-        <v>96.4</v>
+        <v>97.2</v>
       </c>
       <c r="MV14" t="n" s="10">
-        <v>97.2</v>
+        <v>97.9</v>
       </c>
       <c r="MW14" t="n" s="10">
-        <v>98.1</v>
+        <v>98.7</v>
       </c>
       <c r="MX14" t="n" s="10">
-        <v>99.1</v>
+        <v>99.3</v>
       </c>
       <c r="MY14" t="n" s="10">
         <v>100.0</v>
       </c>
       <c r="MZ14" t="n" s="10">
-        <v>100.8</v>
+        <v>100.6</v>
       </c>
       <c r="NA14" t="n" s="10">
-        <v>101.6</v>
+        <v>101.2</v>
       </c>
       <c r="NB14" t="n" s="10">
-        <v>102.3</v>
+        <v>101.5</v>
       </c>
       <c r="NC14" t="n" s="10">
-        <v>102.8</v>
+        <v>101.5</v>
       </c>
       <c r="ND14" t="n" s="10">
-        <v>103.4</v>
+        <v>101.4</v>
       </c>
       <c r="NE14" t="n" s="10">
-        <v>103.9</v>
-      </c>
-      <c r="NF14" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NG14" t="s" s="10">
-        <v>52</v>
+        <v>101.2</v>
+      </c>
+      <c r="NF14" t="n" s="10">
+        <v>101.0</v>
+      </c>
+      <c r="NG14" t="n" s="10">
+        <v>101.0</v>
       </c>
       <c r="NH14" t="s" s="10">
         <v>52</v>
@@ -19044,25 +19044,25 @@
         <v>103.9</v>
       </c>
       <c r="NA16" t="n" s="10">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="NB16" t="n" s="10">
         <v>93.8</v>
       </c>
       <c r="NC16" t="n" s="10">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="ND16" t="n" s="10">
         <v>88.1</v>
       </c>
       <c r="NE16" t="n" s="10">
-        <v>77.2</v>
-      </c>
-      <c r="NF16" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NG16" t="s" s="10">
-        <v>52</v>
+        <v>77.6</v>
+      </c>
+      <c r="NF16" t="n" s="10">
+        <v>89.6</v>
+      </c>
+      <c r="NG16" t="n" s="10">
+        <v>90.5</v>
       </c>
       <c r="NH16" t="s" s="10">
         <v>52</v>
@@ -20165,25 +20165,25 @@
         <v>100.2</v>
       </c>
       <c r="NA17" t="n" s="10">
-        <v>92.0</v>
+        <v>91.9</v>
       </c>
       <c r="NB17" t="n" s="10">
         <v>95.7</v>
       </c>
       <c r="NC17" t="n" s="10">
-        <v>93.6</v>
+        <v>93.5</v>
       </c>
       <c r="ND17" t="n" s="10">
         <v>88.5</v>
       </c>
       <c r="NE17" t="n" s="10">
-        <v>77.2</v>
-      </c>
-      <c r="NF17" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NG17" t="s" s="10">
-        <v>52</v>
+        <v>77.6</v>
+      </c>
+      <c r="NF17" t="n" s="10">
+        <v>88.2</v>
+      </c>
+      <c r="NG17" t="n" s="10">
+        <v>91.3</v>
       </c>
       <c r="NH17" t="s" s="10">
         <v>52</v>
@@ -21286,25 +21286,25 @@
         <v>91.7</v>
       </c>
       <c r="NA18" t="n" s="10">
-        <v>90.1</v>
+        <v>90.0</v>
       </c>
       <c r="NB18" t="n" s="10">
         <v>93.1</v>
       </c>
       <c r="NC18" t="n" s="10">
-        <v>91.1</v>
+        <v>91.0</v>
       </c>
       <c r="ND18" t="n" s="10">
         <v>87.6</v>
       </c>
       <c r="NE18" t="n" s="10">
-        <v>82.8</v>
-      </c>
-      <c r="NF18" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NG18" t="s" s="10">
-        <v>52</v>
+        <v>83.2</v>
+      </c>
+      <c r="NF18" t="n" s="10">
+        <v>85.7</v>
+      </c>
+      <c r="NG18" t="n" s="10">
+        <v>88.2</v>
       </c>
       <c r="NH18" t="s" s="10">
         <v>52</v>
@@ -22188,7 +22188,7 @@
         <v>100.6</v>
       </c>
       <c r="KF19" t="n" s="10">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="KG19" t="n" s="10">
         <v>99.7</v>
@@ -22197,19 +22197,19 @@
         <v>99.5</v>
       </c>
       <c r="KI19" t="n" s="10">
-        <v>101.0</v>
+        <v>100.9</v>
       </c>
       <c r="KJ19" t="n" s="10">
         <v>101.1</v>
       </c>
       <c r="KK19" t="n" s="10">
-        <v>101.0</v>
+        <v>101.1</v>
       </c>
       <c r="KL19" t="n" s="10">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="KM19" t="n" s="10">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="KN19" t="n" s="10">
         <v>99.7</v>
@@ -22224,67 +22224,67 @@
         <v>97.5</v>
       </c>
       <c r="KR19" t="n" s="10">
-        <v>98.0</v>
+        <v>97.9</v>
       </c>
       <c r="KS19" t="n" s="10">
         <v>98.9</v>
       </c>
       <c r="KT19" t="n" s="10">
-        <v>98.9</v>
+        <v>98.8</v>
       </c>
       <c r="KU19" t="n" s="10">
+        <v>97.6</v>
+      </c>
+      <c r="KV19" t="n" s="10">
+        <v>97.4</v>
+      </c>
+      <c r="KW19" t="n" s="10">
         <v>97.5</v>
-      </c>
-      <c r="KV19" t="n" s="10">
-        <v>97.5</v>
-      </c>
-      <c r="KW19" t="n" s="10">
-        <v>97.6</v>
       </c>
       <c r="KX19" t="n" s="10">
         <v>98.5</v>
       </c>
       <c r="KY19" t="n" s="10">
-        <v>98.5</v>
+        <v>98.4</v>
       </c>
       <c r="KZ19" t="n" s="10">
-        <v>97.9</v>
+        <v>97.8</v>
       </c>
       <c r="LA19" t="n" s="10">
         <v>98.7</v>
       </c>
       <c r="LB19" t="n" s="10">
-        <v>98.9</v>
+        <v>98.8</v>
       </c>
       <c r="LC19" t="n" s="10">
         <v>100.1</v>
       </c>
       <c r="LD19" t="n" s="10">
-        <v>100.9</v>
+        <v>101.0</v>
       </c>
       <c r="LE19" t="n" s="10">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="LF19" t="n" s="10">
         <v>100.6</v>
       </c>
       <c r="LG19" t="n" s="10">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="LH19" t="n" s="10">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="LI19" t="n" s="10">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="LJ19" t="n" s="10">
         <v>101.8</v>
       </c>
       <c r="LK19" t="n" s="10">
-        <v>102.0</v>
+        <v>102.2</v>
       </c>
       <c r="LL19" t="n" s="10">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="LM19" t="n" s="10">
         <v>104.3</v>
@@ -22299,34 +22299,34 @@
         <v>102.0</v>
       </c>
       <c r="LQ19" t="n" s="10">
-        <v>103.0</v>
+        <v>103.1</v>
       </c>
       <c r="LR19" t="n" s="10">
-        <v>102.7</v>
+        <v>102.8</v>
       </c>
       <c r="LS19" t="n" s="10">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="LT19" t="n" s="10">
         <v>102.6</v>
       </c>
       <c r="LU19" t="n" s="10">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="LV19" t="n" s="10">
         <v>101.6</v>
       </c>
       <c r="LW19" t="n" s="10">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="LX19" t="n" s="10">
         <v>101.9</v>
       </c>
       <c r="LY19" t="n" s="10">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="LZ19" t="n" s="10">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="MA19" t="n" s="10">
         <v>97.6</v>
@@ -22338,58 +22338,58 @@
         <v>97.1</v>
       </c>
       <c r="MD19" t="n" s="10">
+        <v>97.3</v>
+      </c>
+      <c r="ME19" t="n" s="10">
+        <v>99.8</v>
+      </c>
+      <c r="MF19" t="n" s="10">
         <v>97.2</v>
-      </c>
-      <c r="ME19" t="n" s="10">
-        <v>99.7</v>
-      </c>
-      <c r="MF19" t="n" s="10">
-        <v>97.3</v>
       </c>
       <c r="MG19" t="n" s="10">
         <v>96.0</v>
       </c>
       <c r="MH19" t="n" s="10">
-        <v>94.6</v>
+        <v>94.7</v>
       </c>
       <c r="MI19" t="n" s="10">
         <v>91.2</v>
       </c>
       <c r="MJ19" t="n" s="10">
-        <v>88.5</v>
+        <v>88.6</v>
       </c>
       <c r="MK19" t="n" s="10">
-        <v>89.5</v>
+        <v>89.6</v>
       </c>
       <c r="ML19" t="n" s="10">
-        <v>89.0</v>
+        <v>88.9</v>
       </c>
       <c r="MM19" t="n" s="10">
-        <v>89.5</v>
+        <v>89.4</v>
       </c>
       <c r="MN19" t="n" s="10">
-        <v>85.5</v>
+        <v>85.3</v>
       </c>
       <c r="MO19" t="n" s="10">
-        <v>68.0</v>
+        <v>68.3</v>
       </c>
       <c r="MP19" t="n" s="10">
-        <v>67.3</v>
+        <v>67.4</v>
       </c>
       <c r="MQ19" t="n" s="10">
-        <v>77.3</v>
+        <v>77.0</v>
       </c>
       <c r="MR19" t="n" s="10">
-        <v>80.2</v>
+        <v>80.0</v>
       </c>
       <c r="MS19" t="n" s="10">
-        <v>84.5</v>
+        <v>84.3</v>
       </c>
       <c r="MT19" t="n" s="10">
-        <v>83.3</v>
+        <v>83.7</v>
       </c>
       <c r="MU19" t="n" s="10">
-        <v>86.9</v>
+        <v>87.2</v>
       </c>
       <c r="MV19" t="n" s="10">
         <v>89.2</v>
@@ -22404,28 +22404,28 @@
         <v>86.8</v>
       </c>
       <c r="MZ19" t="n" s="10">
-        <v>90.7</v>
+        <v>90.5</v>
       </c>
       <c r="NA19" t="n" s="10">
-        <v>92.2</v>
+        <v>92.4</v>
       </c>
       <c r="NB19" t="n" s="10">
         <v>92.6</v>
       </c>
       <c r="NC19" t="n" s="10">
-        <v>96.7</v>
+        <v>96.6</v>
       </c>
       <c r="ND19" t="n" s="10">
-        <v>93.8</v>
+        <v>93.1</v>
       </c>
       <c r="NE19" t="n" s="10">
-        <v>87.6</v>
-      </c>
-      <c r="NF19" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NG19" t="s" s="10">
-        <v>52</v>
+        <v>86.3</v>
+      </c>
+      <c r="NF19" t="n" s="10">
+        <v>87.1</v>
+      </c>
+      <c r="NG19" t="n" s="10">
+        <v>87.4</v>
       </c>
       <c r="NH19" t="s" s="10">
         <v>52</v>
@@ -22925,7 +22925,7 @@
         <v>98.8</v>
       </c>
       <c r="FH20" t="n" s="10">
-        <v>99.0</v>
+        <v>98.9</v>
       </c>
       <c r="FI20" t="n" s="10">
         <v>98.9</v>
@@ -22949,7 +22949,7 @@
         <v>98.4</v>
       </c>
       <c r="FP20" t="n" s="10">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="FQ20" t="n" s="10">
         <v>98.2</v>
@@ -22970,13 +22970,13 @@
         <v>99.4</v>
       </c>
       <c r="FW20" t="n" s="10">
-        <v>100.0</v>
+        <v>99.9</v>
       </c>
       <c r="FX20" t="n" s="10">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="FY20" t="n" s="10">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="FZ20" t="n" s="10">
         <v>102.1</v>
@@ -22985,7 +22985,7 @@
         <v>103.1</v>
       </c>
       <c r="GB20" t="n" s="10">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="GC20" t="n" s="10">
         <v>105.3</v>
@@ -23009,25 +23009,25 @@
         <v>110.3</v>
       </c>
       <c r="GJ20" t="n" s="10">
-        <v>110.7</v>
+        <v>110.8</v>
       </c>
       <c r="GK20" t="n" s="10">
-        <v>111.0</v>
+        <v>111.1</v>
       </c>
       <c r="GL20" t="n" s="10">
         <v>111.2</v>
       </c>
       <c r="GM20" t="n" s="10">
-        <v>111.3</v>
+        <v>111.4</v>
       </c>
       <c r="GN20" t="n" s="10">
-        <v>111.4</v>
+        <v>111.5</v>
       </c>
       <c r="GO20" t="n" s="10">
         <v>111.5</v>
       </c>
       <c r="GP20" t="n" s="10">
-        <v>111.5</v>
+        <v>111.6</v>
       </c>
       <c r="GQ20" t="n" s="10">
         <v>111.6</v>
@@ -23042,10 +23042,10 @@
         <v>111.9</v>
       </c>
       <c r="GU20" t="n" s="10">
-        <v>112.2</v>
+        <v>112.3</v>
       </c>
       <c r="GV20" t="n" s="10">
-        <v>112.7</v>
+        <v>112.8</v>
       </c>
       <c r="GW20" t="n" s="10">
         <v>113.4</v>
@@ -23054,7 +23054,7 @@
         <v>114.0</v>
       </c>
       <c r="GY20" t="n" s="10">
-        <v>114.4</v>
+        <v>114.5</v>
       </c>
       <c r="GZ20" t="n" s="10">
         <v>114.6</v>
@@ -23078,16 +23078,16 @@
         <v>102.3</v>
       </c>
       <c r="HG20" t="n" s="10">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="HH20" t="n" s="10">
-        <v>94.2</v>
+        <v>94.1</v>
       </c>
       <c r="HI20" t="n" s="10">
-        <v>90.2</v>
+        <v>90.1</v>
       </c>
       <c r="HJ20" t="n" s="10">
-        <v>86.5</v>
+        <v>86.4</v>
       </c>
       <c r="HK20" t="n" s="10">
         <v>83.3</v>
@@ -23120,10 +23120,10 @@
         <v>86.0</v>
       </c>
       <c r="HU20" t="n" s="10">
-        <v>88.2</v>
+        <v>88.1</v>
       </c>
       <c r="HV20" t="n" s="10">
-        <v>90.2</v>
+        <v>90.1</v>
       </c>
       <c r="HW20" t="n" s="10">
         <v>91.8</v>
@@ -23144,7 +23144,7 @@
         <v>96.9</v>
       </c>
       <c r="IC20" t="n" s="10">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="ID20" t="n" s="10">
         <v>98.6</v>
@@ -23168,7 +23168,7 @@
         <v>102.1</v>
       </c>
       <c r="IK20" t="n" s="10">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="IL20" t="n" s="10">
         <v>102.0</v>
@@ -23198,7 +23198,7 @@
         <v>98.8</v>
       </c>
       <c r="IU20" t="n" s="10">
-        <v>98.5</v>
+        <v>98.4</v>
       </c>
       <c r="IV20" t="n" s="10">
         <v>98.2</v>
@@ -23228,10 +23228,10 @@
         <v>97.0</v>
       </c>
       <c r="JE20" t="n" s="10">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="JF20" t="n" s="10">
-        <v>96.5</v>
+        <v>96.6</v>
       </c>
       <c r="JG20" t="n" s="10">
         <v>96.4</v>
@@ -23276,7 +23276,7 @@
         <v>100.1</v>
       </c>
       <c r="JU20" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="JV20" t="n" s="10">
         <v>100.2</v>
@@ -23351,10 +23351,10 @@
         <v>98.2</v>
       </c>
       <c r="KT20" t="n" s="10">
-        <v>98.1</v>
+        <v>98.0</v>
       </c>
       <c r="KU20" t="n" s="10">
-        <v>98.0</v>
+        <v>97.9</v>
       </c>
       <c r="KV20" t="n" s="10">
         <v>97.9</v>
@@ -23366,13 +23366,13 @@
         <v>98.2</v>
       </c>
       <c r="KY20" t="n" s="10">
-        <v>98.5</v>
+        <v>98.4</v>
       </c>
       <c r="KZ20" t="n" s="10">
-        <v>98.7</v>
+        <v>98.6</v>
       </c>
       <c r="LA20" t="n" s="10">
-        <v>99.0</v>
+        <v>98.9</v>
       </c>
       <c r="LB20" t="n" s="10">
         <v>99.3</v>
@@ -23387,16 +23387,16 @@
         <v>100.5</v>
       </c>
       <c r="LF20" t="n" s="10">
-        <v>100.9</v>
+        <v>101.0</v>
       </c>
       <c r="LG20" t="n" s="10">
         <v>101.4</v>
       </c>
       <c r="LH20" t="n" s="10">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="LI20" t="n" s="10">
-        <v>102.0</v>
+        <v>102.1</v>
       </c>
       <c r="LJ20" t="n" s="10">
         <v>102.3</v>
@@ -23405,7 +23405,7 @@
         <v>102.5</v>
       </c>
       <c r="LL20" t="n" s="10">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="LM20" t="n" s="10">
         <v>102.7</v>
@@ -23414,10 +23414,10 @@
         <v>102.7</v>
       </c>
       <c r="LO20" t="n" s="10">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="LP20" t="n" s="10">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="LQ20" t="n" s="10">
         <v>102.6</v>
@@ -23426,7 +23426,7 @@
         <v>102.5</v>
       </c>
       <c r="LS20" t="n" s="10">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="LT20" t="n" s="10">
         <v>102.1</v>
@@ -23438,13 +23438,13 @@
         <v>101.5</v>
       </c>
       <c r="LW20" t="n" s="10">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="LX20" t="n" s="10">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="LY20" t="n" s="10">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="LZ20" t="n" s="10">
         <v>99.7</v>
@@ -23453,13 +23453,13 @@
         <v>99.1</v>
       </c>
       <c r="MB20" t="n" s="10">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="MC20" t="n" s="10">
         <v>97.8</v>
       </c>
       <c r="MD20" t="n" s="10">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="ME20" t="n" s="10">
         <v>96.7</v>
@@ -23474,79 +23474,79 @@
         <v>93.7</v>
       </c>
       <c r="MI20" t="n" s="10">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="MJ20" t="n" s="10">
-        <v>90.8</v>
+        <v>90.7</v>
       </c>
       <c r="MK20" t="n" s="10">
         <v>89.3</v>
       </c>
       <c r="ML20" t="n" s="10">
-        <v>88.0</v>
+        <v>87.9</v>
       </c>
       <c r="MM20" t="n" s="10">
-        <v>86.6</v>
+        <v>86.5</v>
       </c>
       <c r="MN20" t="n" s="10">
-        <v>85.4</v>
+        <v>85.3</v>
       </c>
       <c r="MO20" t="n" s="10">
-        <v>84.4</v>
+        <v>84.2</v>
       </c>
       <c r="MP20" t="n" s="10">
-        <v>83.6</v>
+        <v>83.5</v>
       </c>
       <c r="MQ20" t="n" s="10">
-        <v>83.2</v>
+        <v>83.1</v>
       </c>
       <c r="MR20" t="n" s="10">
-        <v>83.4</v>
+        <v>83.3</v>
       </c>
       <c r="MS20" t="n" s="10">
-        <v>84.0</v>
+        <v>83.9</v>
       </c>
       <c r="MT20" t="n" s="10">
-        <v>84.6</v>
+        <v>84.7</v>
       </c>
       <c r="MU20" t="n" s="10">
-        <v>85.3</v>
+        <v>85.7</v>
       </c>
       <c r="MV20" t="n" s="10">
-        <v>86.0</v>
+        <v>86.8</v>
       </c>
       <c r="MW20" t="n" s="10">
-        <v>87.0</v>
+        <v>87.7</v>
       </c>
       <c r="MX20" t="n" s="10">
-        <v>88.2</v>
+        <v>88.6</v>
       </c>
       <c r="MY20" t="n" s="10">
+        <v>89.7</v>
+      </c>
+      <c r="MZ20" t="n" s="10">
+        <v>90.6</v>
+      </c>
+      <c r="NA20" t="n" s="10">
+        <v>91.5</v>
+      </c>
+      <c r="NB20" t="n" s="10">
+        <v>91.8</v>
+      </c>
+      <c r="NC20" t="n" s="10">
+        <v>91.6</v>
+      </c>
+      <c r="ND20" t="n" s="10">
+        <v>91.1</v>
+      </c>
+      <c r="NE20" t="n" s="10">
+        <v>90.4</v>
+      </c>
+      <c r="NF20" t="n" s="10">
+        <v>89.8</v>
+      </c>
+      <c r="NG20" t="n" s="10">
         <v>89.5</v>
-      </c>
-      <c r="MZ20" t="n" s="10">
-        <v>90.5</v>
-      </c>
-      <c r="NA20" t="n" s="10">
-        <v>91.2</v>
-      </c>
-      <c r="NB20" t="n" s="10">
-        <v>91.7</v>
-      </c>
-      <c r="NC20" t="n" s="10">
-        <v>92.1</v>
-      </c>
-      <c r="ND20" t="n" s="10">
-        <v>92.5</v>
-      </c>
-      <c r="NE20" t="n" s="10">
-        <v>93.0</v>
-      </c>
-      <c r="NF20" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NG20" t="s" s="10">
-        <v>52</v>
       </c>
       <c r="NH20" t="s" s="10">
         <v>52</v>
@@ -24654,25 +24654,25 @@
         <v>130.2</v>
       </c>
       <c r="NA22" t="n" s="10">
-        <v>114.2</v>
+        <v>113.9</v>
       </c>
       <c r="NB22" t="n" s="10">
-        <v>111.3</v>
+        <v>111.0</v>
       </c>
       <c r="NC22" t="n" s="10">
-        <v>122.5</v>
+        <v>122.1</v>
       </c>
       <c r="ND22" t="n" s="10">
-        <v>116.1</v>
+        <v>115.8</v>
       </c>
       <c r="NE22" t="n" s="10">
-        <v>111.8</v>
-      </c>
-      <c r="NF22" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NG22" t="s" s="10">
-        <v>52</v>
+        <v>112.4</v>
+      </c>
+      <c r="NF22" t="n" s="10">
+        <v>120.4</v>
+      </c>
+      <c r="NG22" t="n" s="10">
+        <v>114.8</v>
       </c>
       <c r="NH22" t="s" s="10">
         <v>52</v>
@@ -25775,25 +25775,25 @@
         <v>124.7</v>
       </c>
       <c r="NA23" t="n" s="10">
-        <v>113.7</v>
+        <v>113.4</v>
       </c>
       <c r="NB23" t="n" s="10">
-        <v>113.9</v>
+        <v>113.6</v>
       </c>
       <c r="NC23" t="n" s="10">
-        <v>119.1</v>
+        <v>118.7</v>
       </c>
       <c r="ND23" t="n" s="10">
-        <v>116.8</v>
+        <v>116.4</v>
       </c>
       <c r="NE23" t="n" s="10">
-        <v>111.7</v>
-      </c>
-      <c r="NF23" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NG23" t="s" s="10">
-        <v>52</v>
+        <v>112.3</v>
+      </c>
+      <c r="NF23" t="n" s="10">
+        <v>118.2</v>
+      </c>
+      <c r="NG23" t="n" s="10">
+        <v>116.0</v>
       </c>
       <c r="NH23" t="s" s="10">
         <v>52</v>
@@ -26896,25 +26896,25 @@
         <v>114.5</v>
       </c>
       <c r="NA24" t="n" s="10">
-        <v>119.0</v>
+        <v>118.7</v>
       </c>
       <c r="NB24" t="n" s="10">
-        <v>118.4</v>
+        <v>118.1</v>
       </c>
       <c r="NC24" t="n" s="10">
-        <v>117.3</v>
+        <v>116.9</v>
       </c>
       <c r="ND24" t="n" s="10">
-        <v>119.6</v>
+        <v>119.3</v>
       </c>
       <c r="NE24" t="n" s="10">
-        <v>116.1</v>
-      </c>
-      <c r="NF24" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NG24" t="s" s="10">
-        <v>52</v>
+        <v>116.8</v>
+      </c>
+      <c r="NF24" t="n" s="10">
+        <v>111.3</v>
+      </c>
+      <c r="NG24" t="n" s="10">
+        <v>115.1</v>
       </c>
       <c r="NH24" t="s" s="10">
         <v>52</v>
@@ -27795,7 +27795,7 @@
         <v>99.2</v>
       </c>
       <c r="KE25" t="n" s="10">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="KF25" t="n" s="10">
         <v>100.0</v>
@@ -27807,37 +27807,37 @@
         <v>100.2</v>
       </c>
       <c r="KI25" t="n" s="10">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="KJ25" t="n" s="10">
         <v>100.5</v>
       </c>
       <c r="KK25" t="n" s="10">
-        <v>98.3</v>
+        <v>98.4</v>
       </c>
       <c r="KL25" t="n" s="10">
         <v>99.9</v>
       </c>
       <c r="KM25" t="n" s="10">
-        <v>98.0</v>
+        <v>97.9</v>
       </c>
       <c r="KN25" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="KO25" t="n" s="10">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="KP25" t="n" s="10">
         <v>99.1</v>
       </c>
       <c r="KQ25" t="n" s="10">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="KR25" t="n" s="10">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="KS25" t="n" s="10">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="KT25" t="n" s="10">
         <v>99.7</v>
@@ -27849,7 +27849,7 @@
         <v>100.0</v>
       </c>
       <c r="KW25" t="n" s="10">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="KX25" t="n" s="10">
         <v>104.3</v>
@@ -27858,10 +27858,10 @@
         <v>105.0</v>
       </c>
       <c r="KZ25" t="n" s="10">
-        <v>103.3</v>
+        <v>103.2</v>
       </c>
       <c r="LA25" t="n" s="10">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="LB25" t="n" s="10">
         <v>105.1</v>
@@ -27879,25 +27879,25 @@
         <v>108.3</v>
       </c>
       <c r="LG25" t="n" s="10">
-        <v>107.4</v>
+        <v>107.3</v>
       </c>
       <c r="LH25" t="n" s="10">
-        <v>109.7</v>
+        <v>109.8</v>
       </c>
       <c r="LI25" t="n" s="10">
-        <v>109.7</v>
+        <v>109.6</v>
       </c>
       <c r="LJ25" t="n" s="10">
-        <v>109.0</v>
+        <v>109.1</v>
       </c>
       <c r="LK25" t="n" s="10">
-        <v>108.5</v>
+        <v>108.7</v>
       </c>
       <c r="LL25" t="n" s="10">
-        <v>112.2</v>
+        <v>112.3</v>
       </c>
       <c r="LM25" t="n" s="10">
-        <v>115.6</v>
+        <v>115.7</v>
       </c>
       <c r="LN25" t="n" s="10">
         <v>110.9</v>
@@ -27909,16 +27909,16 @@
         <v>110.4</v>
       </c>
       <c r="LQ25" t="n" s="10">
-        <v>109.3</v>
+        <v>109.4</v>
       </c>
       <c r="LR25" t="n" s="10">
         <v>110.7</v>
       </c>
       <c r="LS25" t="n" s="10">
-        <v>112.4</v>
+        <v>112.5</v>
       </c>
       <c r="LT25" t="n" s="10">
-        <v>111.1</v>
+        <v>111.0</v>
       </c>
       <c r="LU25" t="n" s="10">
         <v>111.4</v>
@@ -27927,13 +27927,13 @@
         <v>111.2</v>
       </c>
       <c r="LW25" t="n" s="10">
-        <v>112.4</v>
+        <v>112.3</v>
       </c>
       <c r="LX25" t="n" s="10">
-        <v>112.1</v>
+        <v>112.0</v>
       </c>
       <c r="LY25" t="n" s="10">
-        <v>110.6</v>
+        <v>110.7</v>
       </c>
       <c r="LZ25" t="n" s="10">
         <v>112.4</v>
@@ -27942,7 +27942,7 @@
         <v>112.6</v>
       </c>
       <c r="MB25" t="n" s="10">
-        <v>114.9</v>
+        <v>115.0</v>
       </c>
       <c r="MC25" t="n" s="10">
         <v>114.8</v>
@@ -27951,91 +27951,91 @@
         <v>117.6</v>
       </c>
       <c r="ME25" t="n" s="10">
-        <v>114.4</v>
+        <v>114.5</v>
       </c>
       <c r="MF25" t="n" s="10">
         <v>115.4</v>
       </c>
       <c r="MG25" t="n" s="10">
-        <v>115.7</v>
+        <v>115.6</v>
       </c>
       <c r="MH25" t="n" s="10">
         <v>116.1</v>
       </c>
       <c r="MI25" t="n" s="10">
-        <v>113.2</v>
+        <v>113.3</v>
       </c>
       <c r="MJ25" t="n" s="10">
-        <v>109.8</v>
+        <v>110.0</v>
       </c>
       <c r="MK25" t="n" s="10">
-        <v>110.3</v>
+        <v>110.4</v>
       </c>
       <c r="ML25" t="n" s="10">
-        <v>111.6</v>
+        <v>111.5</v>
       </c>
       <c r="MM25" t="n" s="10">
-        <v>109.6</v>
+        <v>109.4</v>
       </c>
       <c r="MN25" t="n" s="10">
-        <v>106.1</v>
+        <v>105.9</v>
       </c>
       <c r="MO25" t="n" s="10">
-        <v>96.3</v>
+        <v>96.6</v>
       </c>
       <c r="MP25" t="n" s="10">
         <v>100.1</v>
       </c>
       <c r="MQ25" t="n" s="10">
-        <v>103.2</v>
+        <v>102.7</v>
       </c>
       <c r="MR25" t="n" s="10">
-        <v>103.8</v>
+        <v>103.3</v>
       </c>
       <c r="MS25" t="n" s="10">
-        <v>104.8</v>
+        <v>104.3</v>
       </c>
       <c r="MT25" t="n" s="10">
-        <v>103.5</v>
+        <v>104.0</v>
       </c>
       <c r="MU25" t="n" s="10">
-        <v>107.6</v>
+        <v>108.4</v>
       </c>
       <c r="MV25" t="n" s="10">
-        <v>111.8</v>
+        <v>111.9</v>
       </c>
       <c r="MW25" t="n" s="10">
-        <v>110.5</v>
+        <v>110.6</v>
       </c>
       <c r="MX25" t="n" s="10">
-        <v>109.4</v>
+        <v>109.6</v>
       </c>
       <c r="MY25" t="n" s="10">
-        <v>113.3</v>
+        <v>113.1</v>
       </c>
       <c r="MZ25" t="n" s="10">
-        <v>115.8</v>
+        <v>115.6</v>
       </c>
       <c r="NA25" t="n" s="10">
-        <v>118.4</v>
+        <v>118.3</v>
       </c>
       <c r="NB25" t="n" s="10">
-        <v>122.0</v>
+        <v>121.7</v>
       </c>
       <c r="NC25" t="n" s="10">
-        <v>121.1</v>
+        <v>120.3</v>
       </c>
       <c r="ND25" t="n" s="10">
-        <v>121.5</v>
+        <v>120.1</v>
       </c>
       <c r="NE25" t="n" s="10">
-        <v>119.3</v>
-      </c>
-      <c r="NF25" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NG25" t="s" s="10">
-        <v>52</v>
+        <v>117.5</v>
+      </c>
+      <c r="NF25" t="n" s="10">
+        <v>116.6</v>
+      </c>
+      <c r="NG25" t="n" s="10">
+        <v>115.6</v>
       </c>
       <c r="NH25" t="s" s="10">
         <v>52</v>
@@ -28508,7 +28508,7 @@
         <v>50.2</v>
       </c>
       <c r="EY26" t="n" s="10">
-        <v>50.8</v>
+        <v>50.7</v>
       </c>
       <c r="EZ26" t="n" s="10">
         <v>51.2</v>
@@ -28523,7 +28523,7 @@
         <v>52.8</v>
       </c>
       <c r="FD26" t="n" s="10">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="FE26" t="n" s="10">
         <v>53.7</v>
@@ -28538,13 +28538,13 @@
         <v>54.9</v>
       </c>
       <c r="FI26" t="n" s="10">
-        <v>55.3</v>
+        <v>55.2</v>
       </c>
       <c r="FJ26" t="n" s="10">
         <v>55.6</v>
       </c>
       <c r="FK26" t="n" s="10">
-        <v>56.1</v>
+        <v>56.0</v>
       </c>
       <c r="FL26" t="n" s="10">
         <v>56.5</v>
@@ -28574,13 +28574,13 @@
         <v>63.4</v>
       </c>
       <c r="FU26" t="n" s="10">
-        <v>64.6</v>
+        <v>64.5</v>
       </c>
       <c r="FV26" t="n" s="10">
         <v>65.7</v>
       </c>
       <c r="FW26" t="n" s="10">
-        <v>66.9</v>
+        <v>66.8</v>
       </c>
       <c r="FX26" t="n" s="10">
         <v>67.9</v>
@@ -28613,19 +28613,19 @@
         <v>76.1</v>
       </c>
       <c r="GH26" t="n" s="10">
-        <v>76.8</v>
+        <v>76.9</v>
       </c>
       <c r="GI26" t="n" s="10">
-        <v>77.5</v>
+        <v>77.6</v>
       </c>
       <c r="GJ26" t="n" s="10">
-        <v>78.3</v>
+        <v>78.4</v>
       </c>
       <c r="GK26" t="n" s="10">
-        <v>79.1</v>
+        <v>79.2</v>
       </c>
       <c r="GL26" t="n" s="10">
-        <v>80.0</v>
+        <v>80.1</v>
       </c>
       <c r="GM26" t="n" s="10">
         <v>81.1</v>
@@ -28646,10 +28646,10 @@
         <v>86.7</v>
       </c>
       <c r="GS26" t="n" s="10">
-        <v>87.8</v>
+        <v>87.9</v>
       </c>
       <c r="GT26" t="n" s="10">
-        <v>88.9</v>
+        <v>89.0</v>
       </c>
       <c r="GU26" t="n" s="10">
         <v>89.9</v>
@@ -28667,10 +28667,10 @@
         <v>93.3</v>
       </c>
       <c r="GZ26" t="n" s="10">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="HA26" t="n" s="10">
-        <v>93.9</v>
+        <v>94.0</v>
       </c>
       <c r="HB26" t="n" s="10">
         <v>93.7</v>
@@ -28688,7 +28688,7 @@
         <v>88.8</v>
       </c>
       <c r="HG26" t="n" s="10">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="HH26" t="n" s="10">
         <v>84.5</v>
@@ -28697,7 +28697,7 @@
         <v>82.2</v>
       </c>
       <c r="HJ26" t="n" s="10">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="HK26" t="n" s="10">
         <v>77.4</v>
@@ -28730,16 +28730,16 @@
         <v>72.6</v>
       </c>
       <c r="HU26" t="n" s="10">
-        <v>73.9</v>
+        <v>73.8</v>
       </c>
       <c r="HV26" t="n" s="10">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="HW26" t="n" s="10">
-        <v>76.7</v>
+        <v>76.6</v>
       </c>
       <c r="HX26" t="n" s="10">
-        <v>78.1</v>
+        <v>78.0</v>
       </c>
       <c r="HY26" t="n" s="10">
         <v>79.4</v>
@@ -28763,7 +28763,7 @@
         <v>87.1</v>
       </c>
       <c r="IF26" t="n" s="10">
-        <v>88.4</v>
+        <v>88.3</v>
       </c>
       <c r="IG26" t="n" s="10">
         <v>89.6</v>
@@ -28793,7 +28793,7 @@
         <v>95.4</v>
       </c>
       <c r="IP26" t="n" s="10">
-        <v>95.6</v>
+        <v>95.5</v>
       </c>
       <c r="IQ26" t="n" s="10">
         <v>95.6</v>
@@ -28805,7 +28805,7 @@
         <v>95.5</v>
       </c>
       <c r="IT26" t="n" s="10">
-        <v>95.4</v>
+        <v>95.3</v>
       </c>
       <c r="IU26" t="n" s="10">
         <v>95.0</v>
@@ -28835,7 +28835,7 @@
         <v>92.7</v>
       </c>
       <c r="JD26" t="n" s="10">
-        <v>92.6</v>
+        <v>92.7</v>
       </c>
       <c r="JE26" t="n" s="10">
         <v>92.6</v>
@@ -28880,7 +28880,7 @@
         <v>94.3</v>
       </c>
       <c r="JS26" t="n" s="10">
-        <v>94.6</v>
+        <v>94.7</v>
       </c>
       <c r="JT26" t="n" s="10">
         <v>95.1</v>
@@ -28940,7 +28940,7 @@
         <v>99.8</v>
       </c>
       <c r="KM26" t="n" s="10">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="KN26" t="n" s="10">
         <v>99.9</v>
@@ -28952,16 +28952,16 @@
         <v>100.0</v>
       </c>
       <c r="KQ26" t="n" s="10">
-        <v>100.1</v>
+        <v>100.0</v>
       </c>
       <c r="KR26" t="n" s="10">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="KS26" t="n" s="10">
         <v>100.5</v>
       </c>
       <c r="KT26" t="n" s="10">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="KU26" t="n" s="10">
         <v>101.3</v>
@@ -28979,10 +28979,10 @@
         <v>103.3</v>
       </c>
       <c r="KZ26" t="n" s="10">
-        <v>103.8</v>
+        <v>103.7</v>
       </c>
       <c r="LA26" t="n" s="10">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="LB26" t="n" s="10">
         <v>104.8</v>
@@ -28997,31 +28997,31 @@
         <v>107.0</v>
       </c>
       <c r="LF26" t="n" s="10">
-        <v>107.6</v>
+        <v>107.7</v>
       </c>
       <c r="LG26" t="n" s="10">
         <v>108.3</v>
       </c>
       <c r="LH26" t="n" s="10">
-        <v>108.9</v>
+        <v>109.0</v>
       </c>
       <c r="LI26" t="n" s="10">
-        <v>109.5</v>
+        <v>109.6</v>
       </c>
       <c r="LJ26" t="n" s="10">
         <v>110.0</v>
       </c>
       <c r="LK26" t="n" s="10">
-        <v>110.4</v>
+        <v>110.5</v>
       </c>
       <c r="LL26" t="n" s="10">
         <v>110.9</v>
       </c>
       <c r="LM26" t="n" s="10">
-        <v>111.1</v>
+        <v>111.2</v>
       </c>
       <c r="LN26" t="n" s="10">
-        <v>111.1</v>
+        <v>111.2</v>
       </c>
       <c r="LO26" t="n" s="10">
         <v>111.1</v>
@@ -29030,10 +29030,10 @@
         <v>111.1</v>
       </c>
       <c r="LQ26" t="n" s="10">
-        <v>111.0</v>
+        <v>111.1</v>
       </c>
       <c r="LR26" t="n" s="10">
-        <v>111.1</v>
+        <v>111.2</v>
       </c>
       <c r="LS26" t="n" s="10">
         <v>111.3</v>
@@ -29057,13 +29057,13 @@
         <v>112.8</v>
       </c>
       <c r="LZ26" t="n" s="10">
-        <v>113.2</v>
+        <v>113.3</v>
       </c>
       <c r="MA26" t="n" s="10">
         <v>113.7</v>
       </c>
       <c r="MB26" t="n" s="10">
-        <v>114.0</v>
+        <v>114.1</v>
       </c>
       <c r="MC26" t="n" s="10">
         <v>114.4</v>
@@ -29087,7 +29087,7 @@
         <v>112.8</v>
       </c>
       <c r="MJ26" t="n" s="10">
-        <v>111.7</v>
+        <v>111.6</v>
       </c>
       <c r="MK26" t="n" s="10">
         <v>110.4</v>
@@ -29096,67 +29096,67 @@
         <v>109.1</v>
       </c>
       <c r="MM26" t="n" s="10">
-        <v>107.9</v>
+        <v>107.8</v>
       </c>
       <c r="MN26" t="n" s="10">
         <v>106.6</v>
       </c>
       <c r="MO26" t="n" s="10">
-        <v>105.6</v>
+        <v>105.5</v>
       </c>
       <c r="MP26" t="n" s="10">
         <v>104.9</v>
       </c>
       <c r="MQ26" t="n" s="10">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
       <c r="MR26" t="n" s="10">
         <v>104.9</v>
       </c>
       <c r="MS26" t="n" s="10">
-        <v>105.6</v>
+        <v>105.5</v>
       </c>
       <c r="MT26" t="n" s="10">
         <v>106.5</v>
       </c>
       <c r="MU26" t="n" s="10">
-        <v>107.3</v>
+        <v>108.1</v>
       </c>
       <c r="MV26" t="n" s="10">
-        <v>108.4</v>
+        <v>109.6</v>
       </c>
       <c r="MW26" t="n" s="10">
-        <v>109.8</v>
+        <v>110.9</v>
       </c>
       <c r="MX26" t="n" s="10">
-        <v>111.5</v>
+        <v>112.3</v>
       </c>
       <c r="MY26" t="n" s="10">
-        <v>113.6</v>
+        <v>113.9</v>
       </c>
       <c r="MZ26" t="n" s="10">
-        <v>115.5</v>
+        <v>115.6</v>
       </c>
       <c r="NA26" t="n" s="10">
-        <v>117.0</v>
+        <v>117.3</v>
       </c>
       <c r="NB26" t="n" s="10">
-        <v>118.2</v>
+        <v>118.3</v>
       </c>
       <c r="NC26" t="n" s="10">
-        <v>119.4</v>
+        <v>118.7</v>
       </c>
       <c r="ND26" t="n" s="10">
-        <v>120.6</v>
+        <v>118.8</v>
       </c>
       <c r="NE26" t="n" s="10">
-        <v>122.2</v>
-      </c>
-      <c r="NF26" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NG26" t="s" s="10">
-        <v>52</v>
+        <v>118.7</v>
+      </c>
+      <c r="NF26" t="n" s="10">
+        <v>118.7</v>
+      </c>
+      <c r="NG26" t="n" s="10">
+        <v>119.0</v>
       </c>
       <c r="NH26" t="s" s="10">
         <v>52</v>
@@ -30270,19 +30270,19 @@
         <v>97.6</v>
       </c>
       <c r="NC28" t="n" s="10">
-        <v>109.0</v>
+        <v>109.1</v>
       </c>
       <c r="ND28" t="n" s="10">
         <v>104.9</v>
       </c>
       <c r="NE28" t="n" s="10">
-        <v>100.2</v>
-      </c>
-      <c r="NF28" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NG28" t="s" s="10">
-        <v>52</v>
+        <v>100.7</v>
+      </c>
+      <c r="NF28" t="n" s="10">
+        <v>108.7</v>
+      </c>
+      <c r="NG28" t="n" s="10">
+        <v>103.0</v>
       </c>
       <c r="NH28" t="s" s="10">
         <v>52</v>
@@ -31391,19 +31391,19 @@
         <v>100.6</v>
       </c>
       <c r="NC29" t="n" s="10">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="ND29" t="n" s="10">
         <v>105.7</v>
       </c>
       <c r="NE29" t="n" s="10">
-        <v>100.1</v>
-      </c>
-      <c r="NF29" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NG29" t="s" s="10">
-        <v>52</v>
+        <v>100.6</v>
+      </c>
+      <c r="NF29" t="n" s="10">
+        <v>106.2</v>
+      </c>
+      <c r="NG29" t="n" s="10">
+        <v>104.4</v>
       </c>
       <c r="NH29" t="s" s="10">
         <v>52</v>
@@ -32512,19 +32512,19 @@
         <v>103.9</v>
       </c>
       <c r="NC30" t="n" s="10">
-        <v>104.9</v>
+        <v>105.0</v>
       </c>
       <c r="ND30" t="n" s="10">
         <v>105.0</v>
       </c>
       <c r="NE30" t="n" s="10">
-        <v>103.7</v>
-      </c>
-      <c r="NF30" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NG30" t="s" s="10">
-        <v>52</v>
+        <v>104.2</v>
+      </c>
+      <c r="NF30" t="n" s="10">
+        <v>100.0</v>
+      </c>
+      <c r="NG30" t="n" s="10">
+        <v>99.3</v>
       </c>
       <c r="NH30" t="s" s="10">
         <v>52</v>
@@ -33405,7 +33405,7 @@
         <v>100.2</v>
       </c>
       <c r="KE31" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="KF31" t="n" s="10">
         <v>100.9</v>
@@ -33417,34 +33417,34 @@
         <v>100.4</v>
       </c>
       <c r="KI31" t="n" s="10">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="KJ31" t="n" s="10">
         <v>100.7</v>
       </c>
       <c r="KK31" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="KL31" t="n" s="10">
         <v>99.0</v>
       </c>
       <c r="KM31" t="n" s="10">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="KN31" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="KO31" t="n" s="10">
-        <v>98.9</v>
+        <v>98.8</v>
       </c>
       <c r="KP31" t="n" s="10">
         <v>100.3</v>
       </c>
       <c r="KQ31" t="n" s="10">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="KR31" t="n" s="10">
-        <v>99.4</v>
+        <v>99.2</v>
       </c>
       <c r="KS31" t="n" s="10">
         <v>100.8</v>
@@ -33453,7 +33453,7 @@
         <v>99.9</v>
       </c>
       <c r="KU31" t="n" s="10">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="KV31" t="n" s="10">
         <v>99.7</v>
@@ -33468,31 +33468,31 @@
         <v>100.7</v>
       </c>
       <c r="KZ31" t="n" s="10">
-        <v>101.0</v>
+        <v>100.9</v>
       </c>
       <c r="LA31" t="n" s="10">
-        <v>101.5</v>
+        <v>101.3</v>
       </c>
       <c r="LB31" t="n" s="10">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="LC31" t="n" s="10">
         <v>103.5</v>
       </c>
       <c r="LD31" t="n" s="10">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="LE31" t="n" s="10">
         <v>104.3</v>
       </c>
       <c r="LF31" t="n" s="10">
-        <v>105.0</v>
+        <v>104.9</v>
       </c>
       <c r="LG31" t="n" s="10">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
       <c r="LH31" t="n" s="10">
-        <v>107.0</v>
+        <v>107.1</v>
       </c>
       <c r="LI31" t="n" s="10">
         <v>106.7</v>
@@ -33501,13 +33501,13 @@
         <v>107.6</v>
       </c>
       <c r="LK31" t="n" s="10">
-        <v>106.6</v>
+        <v>106.8</v>
       </c>
       <c r="LL31" t="n" s="10">
-        <v>109.0</v>
+        <v>109.1</v>
       </c>
       <c r="LM31" t="n" s="10">
-        <v>109.5</v>
+        <v>109.7</v>
       </c>
       <c r="LN31" t="n" s="10">
         <v>109.5</v>
@@ -33519,133 +33519,133 @@
         <v>108.5</v>
       </c>
       <c r="LQ31" t="n" s="10">
-        <v>108.2</v>
+        <v>108.3</v>
       </c>
       <c r="LR31" t="n" s="10">
-        <v>109.0</v>
+        <v>109.1</v>
       </c>
       <c r="LS31" t="n" s="10">
         <v>108.8</v>
       </c>
       <c r="LT31" t="n" s="10">
-        <v>107.4</v>
+        <v>107.3</v>
       </c>
       <c r="LU31" t="n" s="10">
-        <v>108.0</v>
+        <v>108.1</v>
       </c>
       <c r="LV31" t="n" s="10">
         <v>106.4</v>
       </c>
       <c r="LW31" t="n" s="10">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="LX31" t="n" s="10">
-        <v>105.0</v>
+        <v>104.9</v>
       </c>
       <c r="LY31" t="n" s="10">
         <v>105.0</v>
       </c>
       <c r="LZ31" t="n" s="10">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="MA31" t="n" s="10">
         <v>102.9</v>
       </c>
       <c r="MB31" t="n" s="10">
-        <v>103.0</v>
+        <v>103.1</v>
       </c>
       <c r="MC31" t="n" s="10">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="MD31" t="n" s="10">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="ME31" t="n" s="10">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="MF31" t="n" s="10">
         <v>101.6</v>
       </c>
       <c r="MG31" t="n" s="10">
-        <v>99.6</v>
+        <v>99.4</v>
       </c>
       <c r="MH31" t="n" s="10">
-        <v>100.0</v>
+        <v>100.1</v>
       </c>
       <c r="MI31" t="n" s="10">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="MJ31" t="n" s="10">
-        <v>96.8</v>
+        <v>97.0</v>
       </c>
       <c r="MK31" t="n" s="10">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="ML31" t="n" s="10">
         <v>96.9</v>
       </c>
       <c r="MM31" t="n" s="10">
-        <v>96.0</v>
+        <v>95.9</v>
       </c>
       <c r="MN31" t="n" s="10">
-        <v>93.0</v>
+        <v>92.7</v>
       </c>
       <c r="MO31" t="n" s="10">
-        <v>80.9</v>
+        <v>81.3</v>
       </c>
       <c r="MP31" t="n" s="10">
-        <v>89.0</v>
+        <v>88.9</v>
       </c>
       <c r="MQ31" t="n" s="10">
-        <v>91.0</v>
+        <v>90.4</v>
       </c>
       <c r="MR31" t="n" s="10">
-        <v>91.6</v>
+        <v>91.1</v>
       </c>
       <c r="MS31" t="n" s="10">
-        <v>93.9</v>
+        <v>93.1</v>
       </c>
       <c r="MT31" t="n" s="10">
-        <v>93.4</v>
+        <v>93.6</v>
       </c>
       <c r="MU31" t="n" s="10">
-        <v>95.5</v>
+        <v>96.4</v>
       </c>
       <c r="MV31" t="n" s="10">
-        <v>97.8</v>
+        <v>98.1</v>
       </c>
       <c r="MW31" t="n" s="10">
-        <v>97.1</v>
+        <v>97.3</v>
       </c>
       <c r="MX31" t="n" s="10">
-        <v>97.2</v>
+        <v>97.6</v>
       </c>
       <c r="MY31" t="n" s="10">
         <v>99.7</v>
       </c>
       <c r="MZ31" t="n" s="10">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="NA31" t="n" s="10">
-        <v>104.3</v>
+        <v>104.5</v>
       </c>
       <c r="NB31" t="n" s="10">
-        <v>107.3</v>
+        <v>107.1</v>
       </c>
       <c r="NC31" t="n" s="10">
-        <v>107.5</v>
+        <v>107.0</v>
       </c>
       <c r="ND31" t="n" s="10">
-        <v>106.7</v>
+        <v>105.4</v>
       </c>
       <c r="NE31" t="n" s="10">
-        <v>106.3</v>
-      </c>
-      <c r="NF31" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NG31" t="s" s="10">
-        <v>52</v>
+        <v>104.4</v>
+      </c>
+      <c r="NF31" t="n" s="10">
+        <v>102.1</v>
+      </c>
+      <c r="NG31" t="n" s="10">
+        <v>100.3</v>
       </c>
       <c r="NH31" t="s" s="10">
         <v>52</v>
@@ -34091,7 +34091,7 @@
         <v>83.8</v>
       </c>
       <c r="EP32" t="n" s="10">
-        <v>82.3</v>
+        <v>82.4</v>
       </c>
       <c r="EQ32" t="n" s="10">
         <v>82.6</v>
@@ -34100,7 +34100,7 @@
         <v>82.7</v>
       </c>
       <c r="ES32" t="n" s="10">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="ET32" t="n" s="10">
         <v>82.8</v>
@@ -34127,10 +34127,10 @@
         <v>85.2</v>
       </c>
       <c r="FB32" t="n" s="10">
-        <v>85.6</v>
+        <v>85.5</v>
       </c>
       <c r="FC32" t="n" s="10">
-        <v>86.0</v>
+        <v>85.9</v>
       </c>
       <c r="FD32" t="n" s="10">
         <v>86.2</v>
@@ -34139,10 +34139,10 @@
         <v>86.5</v>
       </c>
       <c r="FF32" t="n" s="10">
+        <v>86.6</v>
+      </c>
+      <c r="FG32" t="n" s="10">
         <v>86.7</v>
-      </c>
-      <c r="FG32" t="n" s="10">
-        <v>86.8</v>
       </c>
       <c r="FH32" t="n" s="10">
         <v>86.8</v>
@@ -34172,19 +34172,19 @@
         <v>88.1</v>
       </c>
       <c r="FQ32" t="n" s="10">
-        <v>88.5</v>
+        <v>88.4</v>
       </c>
       <c r="FR32" t="n" s="10">
         <v>88.8</v>
       </c>
       <c r="FS32" t="n" s="10">
-        <v>89.3</v>
+        <v>89.2</v>
       </c>
       <c r="FT32" t="n" s="10">
         <v>89.7</v>
       </c>
       <c r="FU32" t="n" s="10">
-        <v>90.2</v>
+        <v>90.1</v>
       </c>
       <c r="FV32" t="n" s="10">
         <v>90.7</v>
@@ -34202,7 +34202,7 @@
         <v>93.1</v>
       </c>
       <c r="GA32" t="n" s="10">
-        <v>93.9</v>
+        <v>93.8</v>
       </c>
       <c r="GB32" t="n" s="10">
         <v>94.7</v>
@@ -34217,64 +34217,64 @@
         <v>97.4</v>
       </c>
       <c r="GF32" t="n" s="10">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="GG32" t="n" s="10">
         <v>99.1</v>
       </c>
       <c r="GH32" t="n" s="10">
-        <v>99.8</v>
+        <v>99.9</v>
       </c>
       <c r="GI32" t="n" s="10">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="GJ32" t="n" s="10">
-        <v>101.2</v>
+        <v>101.4</v>
       </c>
       <c r="GK32" t="n" s="10">
-        <v>101.8</v>
+        <v>102.0</v>
       </c>
       <c r="GL32" t="n" s="10">
-        <v>102.3</v>
+        <v>102.5</v>
       </c>
       <c r="GM32" t="n" s="10">
-        <v>102.6</v>
+        <v>102.9</v>
       </c>
       <c r="GN32" t="n" s="10">
-        <v>103.0</v>
+        <v>103.2</v>
       </c>
       <c r="GO32" t="n" s="10">
-        <v>103.3</v>
+        <v>103.5</v>
       </c>
       <c r="GP32" t="n" s="10">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="GQ32" t="n" s="10">
-        <v>104.0</v>
+        <v>104.2</v>
       </c>
       <c r="GR32" t="n" s="10">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="GS32" t="n" s="10">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="GT32" t="n" s="10">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="GU32" t="n" s="10">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="GV32" t="n" s="10">
         <v>106.3</v>
       </c>
       <c r="GW32" t="n" s="10">
-        <v>107.0</v>
+        <v>106.9</v>
       </c>
       <c r="GX32" t="n" s="10">
-        <v>107.6</v>
+        <v>107.5</v>
       </c>
       <c r="GY32" t="n" s="10">
-        <v>108.0</v>
+        <v>107.9</v>
       </c>
       <c r="GZ32" t="n" s="10">
         <v>108.0</v>
@@ -34286,19 +34286,19 @@
         <v>107.0</v>
       </c>
       <c r="HC32" t="n" s="10">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="HD32" t="n" s="10">
         <v>104.2</v>
       </c>
       <c r="HE32" t="n" s="10">
-        <v>102.0</v>
+        <v>102.1</v>
       </c>
       <c r="HF32" t="n" s="10">
         <v>99.6</v>
       </c>
       <c r="HG32" t="n" s="10">
-        <v>96.8</v>
+        <v>96.9</v>
       </c>
       <c r="HH32" t="n" s="10">
         <v>94.0</v>
@@ -34310,13 +34310,13 @@
         <v>88.4</v>
       </c>
       <c r="HK32" t="n" s="10">
-        <v>86.0</v>
+        <v>86.1</v>
       </c>
       <c r="HL32" t="n" s="10">
-        <v>84.0</v>
+        <v>84.1</v>
       </c>
       <c r="HM32" t="n" s="10">
-        <v>82.4</v>
+        <v>82.5</v>
       </c>
       <c r="HN32" t="n" s="10">
         <v>81.3</v>
@@ -34352,7 +34352,7 @@
         <v>92.0</v>
       </c>
       <c r="HY32" t="n" s="10">
-        <v>93.6</v>
+        <v>93.5</v>
       </c>
       <c r="HZ32" t="n" s="10">
         <v>95.0</v>
@@ -34364,7 +34364,7 @@
         <v>97.5</v>
       </c>
       <c r="IC32" t="n" s="10">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="ID32" t="n" s="10">
         <v>99.6</v>
@@ -34379,7 +34379,7 @@
         <v>102.1</v>
       </c>
       <c r="IH32" t="n" s="10">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="II32" t="n" s="10">
         <v>103.5</v>
@@ -34409,7 +34409,7 @@
         <v>105.1</v>
       </c>
       <c r="IR32" t="n" s="10">
-        <v>105.0</v>
+        <v>104.9</v>
       </c>
       <c r="IS32" t="n" s="10">
         <v>104.7</v>
@@ -34445,7 +34445,7 @@
         <v>100.8</v>
       </c>
       <c r="JD32" t="n" s="10">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="JE32" t="n" s="10">
         <v>100.1</v>
@@ -34502,10 +34502,10 @@
         <v>100.5</v>
       </c>
       <c r="JW32" t="n" s="10">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="JX32" t="n" s="10">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="JY32" t="n" s="10">
         <v>100.8</v>
@@ -34565,13 +34565,13 @@
         <v>99.8</v>
       </c>
       <c r="KR32" t="n" s="10">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="KS32" t="n" s="10">
         <v>99.9</v>
       </c>
       <c r="KT32" t="n" s="10">
-        <v>100.0</v>
+        <v>99.9</v>
       </c>
       <c r="KU32" t="n" s="10">
         <v>100.1</v>
@@ -34580,7 +34580,7 @@
         <v>100.3</v>
       </c>
       <c r="KW32" t="n" s="10">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="KX32" t="n" s="10">
         <v>100.9</v>
@@ -34595,7 +34595,7 @@
         <v>102.0</v>
       </c>
       <c r="LB32" t="n" s="10">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="LC32" t="n" s="10">
         <v>103.1</v>
@@ -34619,19 +34619,19 @@
         <v>107.0</v>
       </c>
       <c r="LJ32" t="n" s="10">
-        <v>107.4</v>
+        <v>107.5</v>
       </c>
       <c r="LK32" t="n" s="10">
-        <v>107.9</v>
+        <v>108.0</v>
       </c>
       <c r="LL32" t="n" s="10">
         <v>108.3</v>
       </c>
       <c r="LM32" t="n" s="10">
-        <v>108.5</v>
+        <v>108.6</v>
       </c>
       <c r="LN32" t="n" s="10">
-        <v>108.6</v>
+        <v>108.7</v>
       </c>
       <c r="LO32" t="n" s="10">
         <v>108.7</v>
@@ -34676,7 +34676,7 @@
         <v>103.1</v>
       </c>
       <c r="MC32" t="n" s="10">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="MD32" t="n" s="10">
         <v>102.0</v>
@@ -34700,73 +34700,73 @@
         <v>97.1</v>
       </c>
       <c r="MK32" t="n" s="10">
-        <v>96.2</v>
+        <v>96.1</v>
       </c>
       <c r="ML32" t="n" s="10">
-        <v>95.2</v>
+        <v>95.1</v>
       </c>
       <c r="MM32" t="n" s="10">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="MN32" t="n" s="10">
-        <v>93.5</v>
+        <v>93.4</v>
       </c>
       <c r="MO32" t="n" s="10">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="MP32" t="n" s="10">
-        <v>92.5</v>
+        <v>92.4</v>
       </c>
       <c r="MQ32" t="n" s="10">
-        <v>92.5</v>
+        <v>92.4</v>
       </c>
       <c r="MR32" t="n" s="10">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="MS32" t="n" s="10">
-        <v>93.5</v>
+        <v>93.4</v>
       </c>
       <c r="MT32" t="n" s="10">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="MU32" t="n" s="10">
-        <v>95.2</v>
+        <v>95.9</v>
       </c>
       <c r="MV32" t="n" s="10">
-        <v>96.1</v>
+        <v>97.2</v>
       </c>
       <c r="MW32" t="n" s="10">
-        <v>97.4</v>
+        <v>98.5</v>
       </c>
       <c r="MX32" t="n" s="10">
-        <v>98.9</v>
+        <v>99.7</v>
       </c>
       <c r="MY32" t="n" s="10">
-        <v>100.5</v>
+        <v>101.1</v>
       </c>
       <c r="MZ32" t="n" s="10">
-        <v>102.1</v>
+        <v>102.5</v>
       </c>
       <c r="NA32" t="n" s="10">
-        <v>103.5</v>
+        <v>104.0</v>
       </c>
       <c r="NB32" t="n" s="10">
+        <v>104.7</v>
+      </c>
+      <c r="NC32" t="n" s="10">
+        <v>104.8</v>
+      </c>
+      <c r="ND32" t="n" s="10">
         <v>104.6</v>
       </c>
-      <c r="NC32" t="n" s="10">
-        <v>105.7</v>
-      </c>
-      <c r="ND32" t="n" s="10">
-        <v>106.8</v>
-      </c>
       <c r="NE32" t="n" s="10">
-        <v>108.1</v>
-      </c>
-      <c r="NF32" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NG32" t="s" s="10">
-        <v>52</v>
+        <v>104.2</v>
+      </c>
+      <c r="NF32" t="n" s="10">
+        <v>104.0</v>
+      </c>
+      <c r="NG32" t="n" s="10">
+        <v>104.1</v>
       </c>
       <c r="NH32" t="s" s="10">
         <v>52</v>
@@ -35874,25 +35874,25 @@
         <v>109.1</v>
       </c>
       <c r="NA34" t="n" s="10">
-        <v>94.4</v>
+        <v>95.0</v>
       </c>
       <c r="NB34" t="n" s="10">
-        <v>89.8</v>
+        <v>90.4</v>
       </c>
       <c r="NC34" t="n" s="10">
-        <v>101.1</v>
+        <v>101.8</v>
       </c>
       <c r="ND34" t="n" s="10">
-        <v>96.7</v>
+        <v>97.4</v>
       </c>
       <c r="NE34" t="n" s="10">
-        <v>83.7</v>
-      </c>
-      <c r="NF34" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NG34" t="s" s="10">
-        <v>52</v>
+        <v>86.3</v>
+      </c>
+      <c r="NF34" t="n" s="10">
+        <v>101.4</v>
+      </c>
+      <c r="NG34" t="n" s="10">
+        <v>96.9</v>
       </c>
       <c r="NH34" t="s" s="10">
         <v>52</v>
@@ -36995,25 +36995,25 @@
         <v>103.6</v>
       </c>
       <c r="NA35" t="n" s="10">
-        <v>93.9</v>
+        <v>94.5</v>
       </c>
       <c r="NB35" t="n" s="10">
-        <v>92.3</v>
+        <v>93.0</v>
       </c>
       <c r="NC35" t="n" s="10">
-        <v>97.8</v>
+        <v>98.4</v>
       </c>
       <c r="ND35" t="n" s="10">
-        <v>97.3</v>
+        <v>98.1</v>
       </c>
       <c r="NE35" t="n" s="10">
-        <v>83.7</v>
-      </c>
-      <c r="NF35" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NG35" t="s" s="10">
-        <v>52</v>
+        <v>86.3</v>
+      </c>
+      <c r="NF35" t="n" s="10">
+        <v>99.2</v>
+      </c>
+      <c r="NG35" t="n" s="10">
+        <v>98.1</v>
       </c>
       <c r="NH35" t="s" s="10">
         <v>52</v>
@@ -38116,25 +38116,25 @@
         <v>95.0</v>
       </c>
       <c r="NA36" t="n" s="10">
+        <v>99.0</v>
+      </c>
+      <c r="NB36" t="n" s="10">
+        <v>97.3</v>
+      </c>
+      <c r="NC36" t="n" s="10">
+        <v>92.3</v>
+      </c>
+      <c r="ND36" t="n" s="10">
+        <v>99.7</v>
+      </c>
+      <c r="NE36" t="n" s="10">
+        <v>95.6</v>
+      </c>
+      <c r="NF36" t="n" s="10">
+        <v>93.7</v>
+      </c>
+      <c r="NG36" t="n" s="10">
         <v>98.4</v>
-      </c>
-      <c r="NB36" t="n" s="10">
-        <v>96.7</v>
-      </c>
-      <c r="NC36" t="n" s="10">
-        <v>91.7</v>
-      </c>
-      <c r="ND36" t="n" s="10">
-        <v>98.9</v>
-      </c>
-      <c r="NE36" t="n" s="10">
-        <v>92.7</v>
-      </c>
-      <c r="NF36" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NG36" t="s" s="10">
-        <v>52</v>
       </c>
       <c r="NH36" t="s" s="10">
         <v>52</v>
@@ -39018,25 +39018,25 @@
         <v>99.1</v>
       </c>
       <c r="KF37" t="n" s="10">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="KG37" t="n" s="10">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="KH37" t="n" s="10">
         <v>101.0</v>
       </c>
       <c r="KI37" t="n" s="10">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="KJ37" t="n" s="10">
-        <v>101.9</v>
+        <v>102.0</v>
       </c>
       <c r="KK37" t="n" s="10">
         <v>99.7</v>
       </c>
       <c r="KL37" t="n" s="10">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="KM37" t="n" s="10">
         <v>100.6</v>
@@ -39054,16 +39054,16 @@
         <v>100.1</v>
       </c>
       <c r="KR37" t="n" s="10">
-        <v>100.1</v>
+        <v>100.0</v>
       </c>
       <c r="KS37" t="n" s="10">
         <v>99.0</v>
       </c>
       <c r="KT37" t="n" s="10">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
       <c r="KU37" t="n" s="10">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="KV37" t="n" s="10">
         <v>98.0</v>
@@ -39075,16 +39075,16 @@
         <v>101.0</v>
       </c>
       <c r="KY37" t="n" s="10">
-        <v>99.5</v>
+        <v>99.4</v>
       </c>
       <c r="KZ37" t="n" s="10">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="LA37" t="n" s="10">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="LB37" t="n" s="10">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="LC37" t="n" s="10">
         <v>102.3</v>
@@ -39099,10 +39099,10 @@
         <v>103.8</v>
       </c>
       <c r="LG37" t="n" s="10">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="LH37" t="n" s="10">
-        <v>104.0</v>
+        <v>104.1</v>
       </c>
       <c r="LI37" t="n" s="10">
         <v>103.8</v>
@@ -39111,40 +39111,40 @@
         <v>105.6</v>
       </c>
       <c r="LK37" t="n" s="10">
-        <v>104.6</v>
+        <v>104.7</v>
       </c>
       <c r="LL37" t="n" s="10">
-        <v>107.1</v>
+        <v>107.2</v>
       </c>
       <c r="LM37" t="n" s="10">
-        <v>110.3</v>
+        <v>110.4</v>
       </c>
       <c r="LN37" t="n" s="10">
-        <v>107.0</v>
+        <v>106.9</v>
       </c>
       <c r="LO37" t="n" s="10">
         <v>105.3</v>
       </c>
       <c r="LP37" t="n" s="10">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="LQ37" t="n" s="10">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="LR37" t="n" s="10">
         <v>107.3</v>
       </c>
       <c r="LS37" t="n" s="10">
-        <v>107.0</v>
+        <v>107.1</v>
       </c>
       <c r="LT37" t="n" s="10">
-        <v>106.6</v>
+        <v>106.5</v>
       </c>
       <c r="LU37" t="n" s="10">
-        <v>107.8</v>
+        <v>107.9</v>
       </c>
       <c r="LV37" t="n" s="10">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="LW37" t="n" s="10">
         <v>108.2</v>
@@ -39153,10 +39153,10 @@
         <v>105.3</v>
       </c>
       <c r="LY37" t="n" s="10">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="LZ37" t="n" s="10">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="MA37" t="n" s="10">
         <v>106.0</v>
@@ -39174,7 +39174,7 @@
         <v>103.2</v>
       </c>
       <c r="MF37" t="n" s="10">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="MG37" t="n" s="10">
         <v>102.5</v>
@@ -39186,10 +39186,10 @@
         <v>100.4</v>
       </c>
       <c r="MJ37" t="n" s="10">
-        <v>98.9</v>
+        <v>99.1</v>
       </c>
       <c r="MK37" t="n" s="10">
-        <v>99.0</v>
+        <v>99.2</v>
       </c>
       <c r="ML37" t="n" s="10">
         <v>96.2</v>
@@ -39198,64 +39198,64 @@
         <v>95.6</v>
       </c>
       <c r="MN37" t="n" s="10">
-        <v>92.7</v>
+        <v>92.5</v>
       </c>
       <c r="MO37" t="n" s="10">
-        <v>74.9</v>
+        <v>74.8</v>
       </c>
       <c r="MP37" t="n" s="10">
         <v>86.3</v>
       </c>
       <c r="MQ37" t="n" s="10">
-        <v>92.3</v>
+        <v>92.1</v>
       </c>
       <c r="MR37" t="n" s="10">
-        <v>88.6</v>
+        <v>88.5</v>
       </c>
       <c r="MS37" t="n" s="10">
-        <v>90.2</v>
+        <v>89.8</v>
       </c>
       <c r="MT37" t="n" s="10">
-        <v>89.5</v>
+        <v>89.9</v>
       </c>
       <c r="MU37" t="n" s="10">
-        <v>90.2</v>
+        <v>90.6</v>
       </c>
       <c r="MV37" t="n" s="10">
-        <v>92.3</v>
+        <v>92.5</v>
       </c>
       <c r="MW37" t="n" s="10">
-        <v>89.5</v>
+        <v>89.9</v>
       </c>
       <c r="MX37" t="n" s="10">
         <v>94.6</v>
       </c>
       <c r="MY37" t="n" s="10">
-        <v>94.1</v>
+        <v>94.0</v>
       </c>
       <c r="MZ37" t="n" s="10">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="NA37" t="n" s="10">
-        <v>97.4</v>
+        <v>97.8</v>
       </c>
       <c r="NB37" t="n" s="10">
-        <v>101.4</v>
+        <v>102.1</v>
       </c>
       <c r="NC37" t="n" s="10">
-        <v>95.0</v>
+        <v>95.4</v>
       </c>
       <c r="ND37" t="n" s="10">
-        <v>98.2</v>
+        <v>98.6</v>
       </c>
       <c r="NE37" t="n" s="10">
-        <v>96.6</v>
-      </c>
-      <c r="NF37" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NG37" t="s" s="10">
-        <v>52</v>
+        <v>97.6</v>
+      </c>
+      <c r="NF37" t="n" s="10">
+        <v>96.1</v>
+      </c>
+      <c r="NG37" t="n" s="10">
+        <v>98.0</v>
       </c>
       <c r="NH37" t="s" s="10">
         <v>52</v>
@@ -39800,10 +39800,10 @@
         <v>85.2</v>
       </c>
       <c r="FW38" t="n" s="10">
-        <v>85.7</v>
+        <v>85.6</v>
       </c>
       <c r="FX38" t="n" s="10">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
       <c r="FY38" t="n" s="10">
         <v>86.6</v>
@@ -39839,7 +39839,7 @@
         <v>94.5</v>
       </c>
       <c r="GJ38" t="n" s="10">
-        <v>95.3</v>
+        <v>95.4</v>
       </c>
       <c r="GK38" t="n" s="10">
         <v>96.2</v>
@@ -39854,13 +39854,13 @@
         <v>98.6</v>
       </c>
       <c r="GO38" t="n" s="10">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="GP38" t="n" s="10">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="GQ38" t="n" s="10">
-        <v>101.0</v>
+        <v>101.1</v>
       </c>
       <c r="GR38" t="n" s="10">
         <v>101.9</v>
@@ -39875,7 +39875,7 @@
         <v>104.2</v>
       </c>
       <c r="GV38" t="n" s="10">
-        <v>104.9</v>
+        <v>105.0</v>
       </c>
       <c r="GW38" t="n" s="10">
         <v>105.7</v>
@@ -39893,7 +39893,7 @@
         <v>107.8</v>
       </c>
       <c r="HB38" t="n" s="10">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="HC38" t="n" s="10">
         <v>107.0</v>
@@ -39905,13 +39905,13 @@
         <v>104.2</v>
       </c>
       <c r="HF38" t="n" s="10">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="HG38" t="n" s="10">
         <v>99.9</v>
       </c>
       <c r="HH38" t="n" s="10">
-        <v>97.1</v>
+        <v>97.2</v>
       </c>
       <c r="HI38" t="n" s="10">
         <v>94.2</v>
@@ -39962,7 +39962,7 @@
         <v>80.7</v>
       </c>
       <c r="HY38" t="n" s="10">
-        <v>82.2</v>
+        <v>82.1</v>
       </c>
       <c r="HZ38" t="n" s="10">
         <v>83.6</v>
@@ -39971,7 +39971,7 @@
         <v>85.0</v>
       </c>
       <c r="IB38" t="n" s="10">
-        <v>86.5</v>
+        <v>86.4</v>
       </c>
       <c r="IC38" t="n" s="10">
         <v>87.9</v>
@@ -39983,7 +39983,7 @@
         <v>90.9</v>
       </c>
       <c r="IF38" t="n" s="10">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="IG38" t="n" s="10">
         <v>93.6</v>
@@ -40004,7 +40004,7 @@
         <v>98.1</v>
       </c>
       <c r="IM38" t="n" s="10">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="IN38" t="n" s="10">
         <v>99.3</v>
@@ -40019,7 +40019,7 @@
         <v>100.4</v>
       </c>
       <c r="IR38" t="n" s="10">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="IS38" t="n" s="10">
         <v>100.8</v>
@@ -40046,7 +40046,7 @@
         <v>99.8</v>
       </c>
       <c r="JA38" t="n" s="10">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="JB38" t="n" s="10">
         <v>99.1</v>
@@ -40055,7 +40055,7 @@
         <v>98.8</v>
       </c>
       <c r="JD38" t="n" s="10">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="JE38" t="n" s="10">
         <v>98.2</v>
@@ -40067,7 +40067,7 @@
         <v>97.9</v>
       </c>
       <c r="JH38" t="n" s="10">
-        <v>97.9</v>
+        <v>98.0</v>
       </c>
       <c r="JI38" t="n" s="10">
         <v>98.1</v>
@@ -40076,7 +40076,7 @@
         <v>98.3</v>
       </c>
       <c r="JK38" t="n" s="10">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="JL38" t="n" s="10">
         <v>98.6</v>
@@ -40199,7 +40199,7 @@
         <v>100.2</v>
       </c>
       <c r="KZ38" t="n" s="10">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="LA38" t="n" s="10">
         <v>100.6</v>
@@ -40208,7 +40208,7 @@
         <v>101.0</v>
       </c>
       <c r="LC38" t="n" s="10">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="LD38" t="n" s="10">
         <v>102.0</v>
@@ -40220,7 +40220,7 @@
         <v>103.2</v>
       </c>
       <c r="LG38" t="n" s="10">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="LH38" t="n" s="10">
         <v>104.3</v>
@@ -40232,43 +40232,43 @@
         <v>105.4</v>
       </c>
       <c r="LK38" t="n" s="10">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="LL38" t="n" s="10">
         <v>106.3</v>
       </c>
       <c r="LM38" t="n" s="10">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="LN38" t="n" s="10">
         <v>106.8</v>
       </c>
       <c r="LO38" t="n" s="10">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="LP38" t="n" s="10">
-        <v>106.9</v>
+        <v>107.0</v>
       </c>
       <c r="LQ38" t="n" s="10">
-        <v>107.0</v>
+        <v>107.1</v>
       </c>
       <c r="LR38" t="n" s="10">
         <v>107.1</v>
       </c>
       <c r="LS38" t="n" s="10">
-        <v>107.0</v>
+        <v>107.1</v>
       </c>
       <c r="LT38" t="n" s="10">
         <v>107.0</v>
       </c>
       <c r="LU38" t="n" s="10">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="LV38" t="n" s="10">
         <v>106.7</v>
       </c>
       <c r="LW38" t="n" s="10">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="LX38" t="n" s="10">
         <v>106.4</v>
@@ -40331,52 +40331,52 @@
         <v>90.5</v>
       </c>
       <c r="MR38" t="n" s="10">
+        <v>90.2</v>
+      </c>
+      <c r="MS38" t="n" s="10">
         <v>90.3</v>
       </c>
-      <c r="MS38" t="n" s="10">
-        <v>90.5</v>
-      </c>
       <c r="MT38" t="n" s="10">
-        <v>90.7</v>
+        <v>90.6</v>
       </c>
       <c r="MU38" t="n" s="10">
-        <v>91.0</v>
+        <v>91.3</v>
       </c>
       <c r="MV38" t="n" s="10">
-        <v>91.4</v>
+        <v>92.1</v>
       </c>
       <c r="MW38" t="n" s="10">
-        <v>92.1</v>
+        <v>92.8</v>
       </c>
       <c r="MX38" t="n" s="10">
-        <v>93.1</v>
+        <v>93.5</v>
       </c>
       <c r="MY38" t="n" s="10">
-        <v>94.4</v>
+        <v>94.5</v>
       </c>
       <c r="MZ38" t="n" s="10">
-        <v>95.4</v>
+        <v>95.6</v>
       </c>
       <c r="NA38" t="n" s="10">
-        <v>96.1</v>
+        <v>96.7</v>
       </c>
       <c r="NB38" t="n" s="10">
-        <v>96.6</v>
+        <v>97.4</v>
       </c>
       <c r="NC38" t="n" s="10">
-        <v>96.9</v>
+        <v>97.8</v>
       </c>
       <c r="ND38" t="n" s="10">
-        <v>97.5</v>
+        <v>97.9</v>
       </c>
       <c r="NE38" t="n" s="10">
-        <v>98.3</v>
-      </c>
-      <c r="NF38" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NG38" t="s" s="10">
-        <v>52</v>
+        <v>98.0</v>
+      </c>
+      <c r="NF38" t="n" s="10">
+        <v>98.1</v>
+      </c>
+      <c r="NG38" t="n" s="10">
+        <v>98.4</v>
       </c>
       <c r="NH38" t="s" s="10">
         <v>52</v>
@@ -41484,7 +41484,7 @@
         <v>87.1</v>
       </c>
       <c r="NA40" t="n" s="10">
-        <v>71.9</v>
+        <v>71.8</v>
       </c>
       <c r="NB40" t="n" s="10">
         <v>61.7</v>
@@ -41493,16 +41493,16 @@
         <v>67.8</v>
       </c>
       <c r="ND40" t="n" s="10">
-        <v>64.2</v>
+        <v>64.1</v>
       </c>
       <c r="NE40" t="n" s="10">
-        <v>43.6</v>
-      </c>
-      <c r="NF40" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NG40" t="s" s="10">
-        <v>52</v>
+        <v>42.8</v>
+      </c>
+      <c r="NF40" t="n" s="10">
+        <v>60.0</v>
+      </c>
+      <c r="NG40" t="n" s="10">
+        <v>62.4</v>
       </c>
       <c r="NH40" t="s" s="10">
         <v>52</v>
@@ -42605,7 +42605,7 @@
         <v>81.2</v>
       </c>
       <c r="NA41" t="n" s="10">
-        <v>71.3</v>
+        <v>71.2</v>
       </c>
       <c r="NB41" t="n" s="10">
         <v>64.1</v>
@@ -42614,16 +42614,16 @@
         <v>64.8</v>
       </c>
       <c r="ND41" t="n" s="10">
-        <v>64.8</v>
+        <v>64.7</v>
       </c>
       <c r="NE41" t="n" s="10">
-        <v>43.6</v>
-      </c>
-      <c r="NF41" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NG41" t="s" s="10">
-        <v>52</v>
+        <v>42.8</v>
+      </c>
+      <c r="NF41" t="n" s="10">
+        <v>58.2</v>
+      </c>
+      <c r="NG41" t="n" s="10">
+        <v>63.5</v>
       </c>
       <c r="NH41" t="s" s="10">
         <v>52</v>
@@ -43726,7 +43726,7 @@
         <v>71.9</v>
       </c>
       <c r="NA42" t="n" s="10">
-        <v>69.5</v>
+        <v>69.4</v>
       </c>
       <c r="NB42" t="n" s="10">
         <v>64.1</v>
@@ -43735,16 +43735,16 @@
         <v>63.2</v>
       </c>
       <c r="ND42" t="n" s="10">
-        <v>64.5</v>
+        <v>64.4</v>
       </c>
       <c r="NE42" t="n" s="10">
-        <v>53.2</v>
-      </c>
-      <c r="NF42" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NG42" t="s" s="10">
-        <v>52</v>
+        <v>52.2</v>
+      </c>
+      <c r="NF42" t="n" s="10">
+        <v>53.3</v>
+      </c>
+      <c r="NG42" t="n" s="10">
+        <v>60.0</v>
       </c>
       <c r="NH42" t="s" s="10">
         <v>52</v>
@@ -44622,10 +44622,10 @@
         <v>102.3</v>
       </c>
       <c r="KD43" t="n" s="10">
-        <v>98.5</v>
+        <v>98.4</v>
       </c>
       <c r="KE43" t="n" s="10">
-        <v>101.0</v>
+        <v>100.9</v>
       </c>
       <c r="KF43" t="n" s="10">
         <v>101.1</v>
@@ -44634,28 +44634,28 @@
         <v>99.6</v>
       </c>
       <c r="KH43" t="n" s="10">
-        <v>101.0</v>
+        <v>100.9</v>
       </c>
       <c r="KI43" t="n" s="10">
-        <v>99.3</v>
+        <v>99.0</v>
       </c>
       <c r="KJ43" t="n" s="10">
-        <v>102.1</v>
+        <v>102.3</v>
       </c>
       <c r="KK43" t="n" s="10">
         <v>97.8</v>
       </c>
       <c r="KL43" t="n" s="10">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="KM43" t="n" s="10">
-        <v>103.0</v>
+        <v>103.1</v>
       </c>
       <c r="KN43" t="n" s="10">
-        <v>101.9</v>
+        <v>102.0</v>
       </c>
       <c r="KO43" t="n" s="10">
-        <v>100.6</v>
+        <v>100.4</v>
       </c>
       <c r="KP43" t="n" s="10">
         <v>103.4</v>
@@ -44664,16 +44664,16 @@
         <v>100.4</v>
       </c>
       <c r="KR43" t="n" s="10">
-        <v>101.4</v>
+        <v>101.1</v>
       </c>
       <c r="KS43" t="n" s="10">
-        <v>103.3</v>
+        <v>103.5</v>
       </c>
       <c r="KT43" t="n" s="10">
         <v>100.2</v>
       </c>
       <c r="KU43" t="n" s="10">
-        <v>103.7</v>
+        <v>103.9</v>
       </c>
       <c r="KV43" t="n" s="10">
         <v>100.0</v>
@@ -44682,88 +44682,88 @@
         <v>102.6</v>
       </c>
       <c r="KX43" t="n" s="10">
-        <v>103.0</v>
+        <v>103.2</v>
       </c>
       <c r="KY43" t="n" s="10">
-        <v>102.3</v>
+        <v>102.0</v>
       </c>
       <c r="KZ43" t="n" s="10">
-        <v>99.4</v>
+        <v>99.1</v>
       </c>
       <c r="LA43" t="n" s="10">
         <v>100.4</v>
       </c>
       <c r="LB43" t="n" s="10">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="LC43" t="n" s="10">
-        <v>104.8</v>
+        <v>104.6</v>
       </c>
       <c r="LD43" t="n" s="10">
-        <v>103.6</v>
+        <v>103.8</v>
       </c>
       <c r="LE43" t="n" s="10">
-        <v>101.5</v>
+        <v>103.3</v>
       </c>
       <c r="LF43" t="n" s="10">
+        <v>104.5</v>
+      </c>
+      <c r="LG43" t="n" s="10">
+        <v>103.2</v>
+      </c>
+      <c r="LH43" t="n" s="10">
         <v>104.7</v>
       </c>
-      <c r="LG43" t="n" s="10">
-        <v>103.4</v>
-      </c>
-      <c r="LH43" t="n" s="10">
-        <v>104.9</v>
-      </c>
       <c r="LI43" t="n" s="10">
-        <v>110.3</v>
+        <v>110.0</v>
       </c>
       <c r="LJ43" t="n" s="10">
-        <v>106.9</v>
+        <v>106.7</v>
       </c>
       <c r="LK43" t="n" s="10">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="LL43" t="n" s="10">
-        <v>111.4</v>
+        <v>111.2</v>
       </c>
       <c r="LM43" t="n" s="10">
-        <v>106.9</v>
+        <v>106.8</v>
       </c>
       <c r="LN43" t="n" s="10">
-        <v>109.2</v>
+        <v>108.8</v>
       </c>
       <c r="LO43" t="n" s="10">
-        <v>104.2</v>
+        <v>103.9</v>
       </c>
       <c r="LP43" t="n" s="10">
-        <v>108.3</v>
+        <v>107.8</v>
       </c>
       <c r="LQ43" t="n" s="10">
-        <v>109.6</v>
+        <v>113.9</v>
       </c>
       <c r="LR43" t="n" s="10">
-        <v>107.3</v>
+        <v>106.5</v>
       </c>
       <c r="LS43" t="n" s="10">
-        <v>105.6</v>
+        <v>105.4</v>
       </c>
       <c r="LT43" t="n" s="10">
-        <v>103.2</v>
+        <v>102.9</v>
       </c>
       <c r="LU43" t="n" s="10">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="LV43" t="n" s="10">
-        <v>98.9</v>
+        <v>98.6</v>
       </c>
       <c r="LW43" t="n" s="10">
-        <v>101.4</v>
+        <v>101.0</v>
       </c>
       <c r="LX43" t="n" s="10">
         <v>96.8</v>
       </c>
       <c r="LY43" t="n" s="10">
-        <v>99.8</v>
+        <v>99.6</v>
       </c>
       <c r="LZ43" t="n" s="10">
         <v>93.9</v>
@@ -44772,100 +44772,100 @@
         <v>97.6</v>
       </c>
       <c r="MB43" t="n" s="10">
-        <v>99.1</v>
+        <v>99.3</v>
       </c>
       <c r="MC43" t="n" s="10">
-        <v>93.8</v>
+        <v>95.5</v>
       </c>
       <c r="MD43" t="n" s="10">
-        <v>96.4</v>
+        <v>95.4</v>
       </c>
       <c r="ME43" t="n" s="10">
-        <v>94.1</v>
+        <v>94.0</v>
       </c>
       <c r="MF43" t="n" s="10">
-        <v>92.7</v>
+        <v>92.4</v>
       </c>
       <c r="MG43" t="n" s="10">
-        <v>92.6</v>
+        <v>92.5</v>
       </c>
       <c r="MH43" t="n" s="10">
-        <v>91.5</v>
+        <v>91.6</v>
       </c>
       <c r="MI43" t="n" s="10">
         <v>84.5</v>
       </c>
       <c r="MJ43" t="n" s="10">
-        <v>82.7</v>
+        <v>82.6</v>
       </c>
       <c r="MK43" t="n" s="10">
-        <v>82.1</v>
+        <v>82.2</v>
       </c>
       <c r="ML43" t="n" s="10">
-        <v>84.0</v>
+        <v>84.2</v>
       </c>
       <c r="MM43" t="n" s="10">
         <v>80.7</v>
       </c>
       <c r="MN43" t="n" s="10">
-        <v>67.7</v>
+        <v>67.8</v>
       </c>
       <c r="MO43" t="n" s="10">
-        <v>17.0</v>
+        <v>16.8</v>
       </c>
       <c r="MP43" t="n" s="10">
-        <v>48.0</v>
+        <v>46.9</v>
       </c>
       <c r="MQ43" t="n" s="10">
-        <v>74.2</v>
+        <v>74.1</v>
       </c>
       <c r="MR43" t="n" s="10">
         <v>76.0</v>
       </c>
       <c r="MS43" t="n" s="10">
-        <v>75.3</v>
+        <v>75.0</v>
       </c>
       <c r="MT43" t="n" s="10">
-        <v>73.7</v>
+        <v>74.7</v>
       </c>
       <c r="MU43" t="n" s="10">
         <v>78.9</v>
       </c>
       <c r="MV43" t="n" s="10">
-        <v>80.5</v>
+        <v>80.4</v>
       </c>
       <c r="MW43" t="n" s="10">
-        <v>76.9</v>
+        <v>76.8</v>
       </c>
       <c r="MX43" t="n" s="10">
-        <v>72.9</v>
+        <v>72.8</v>
       </c>
       <c r="MY43" t="n" s="10">
-        <v>71.2</v>
+        <v>71.5</v>
       </c>
       <c r="MZ43" t="n" s="10">
-        <v>82.5</v>
+        <v>82.7</v>
       </c>
       <c r="NA43" t="n" s="10">
-        <v>73.4</v>
+        <v>73.2</v>
       </c>
       <c r="NB43" t="n" s="10">
-        <v>69.4</v>
+        <v>68.8</v>
       </c>
       <c r="NC43" t="n" s="10">
-        <v>66.5</v>
+        <v>66.3</v>
       </c>
       <c r="ND43" t="n" s="10">
-        <v>64.1</v>
+        <v>63.0</v>
       </c>
       <c r="NE43" t="n" s="10">
-        <v>62.9</v>
-      </c>
-      <c r="NF43" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NG43" t="s" s="10">
-        <v>52</v>
+        <v>60.9</v>
+      </c>
+      <c r="NF43" t="n" s="10">
+        <v>53.5</v>
+      </c>
+      <c r="NG43" t="n" s="10">
+        <v>53.7</v>
       </c>
       <c r="NH43" t="s" s="10">
         <v>52</v>
@@ -45317,43 +45317,43 @@
         <v>76.5</v>
       </c>
       <c r="ER44" t="n" s="10">
-        <v>75.9</v>
+        <v>75.8</v>
       </c>
       <c r="ES44" t="n" s="10">
-        <v>75.0</v>
+        <v>74.9</v>
       </c>
       <c r="ET44" t="n" s="10">
         <v>74.1</v>
       </c>
       <c r="EU44" t="n" s="10">
-        <v>73.5</v>
+        <v>73.4</v>
       </c>
       <c r="EV44" t="n" s="10">
-        <v>73.4</v>
+        <v>73.3</v>
       </c>
       <c r="EW44" t="n" s="10">
-        <v>73.9</v>
+        <v>73.8</v>
       </c>
       <c r="EX44" t="n" s="10">
-        <v>74.2</v>
+        <v>74.1</v>
       </c>
       <c r="EY44" t="n" s="10">
-        <v>74.6</v>
+        <v>74.5</v>
       </c>
       <c r="EZ44" t="n" s="10">
-        <v>74.9</v>
+        <v>74.8</v>
       </c>
       <c r="FA44" t="n" s="10">
-        <v>75.4</v>
+        <v>75.3</v>
       </c>
       <c r="FB44" t="n" s="10">
-        <v>75.9</v>
+        <v>75.8</v>
       </c>
       <c r="FC44" t="n" s="10">
         <v>76.5</v>
       </c>
       <c r="FD44" t="n" s="10">
-        <v>77.0</v>
+        <v>76.9</v>
       </c>
       <c r="FE44" t="n" s="10">
         <v>77.4</v>
@@ -45362,7 +45362,7 @@
         <v>77.7</v>
       </c>
       <c r="FG44" t="n" s="10">
-        <v>77.9</v>
+        <v>77.8</v>
       </c>
       <c r="FH44" t="n" s="10">
         <v>78.0</v>
@@ -45371,7 +45371,7 @@
         <v>78.1</v>
       </c>
       <c r="FJ44" t="n" s="10">
-        <v>78.1</v>
+        <v>78.2</v>
       </c>
       <c r="FK44" t="n" s="10">
         <v>78.2</v>
@@ -45422,10 +45422,10 @@
         <v>82.0</v>
       </c>
       <c r="GA44" t="n" s="10">
-        <v>82.1</v>
+        <v>82.2</v>
       </c>
       <c r="GB44" t="n" s="10">
-        <v>82.3</v>
+        <v>82.4</v>
       </c>
       <c r="GC44" t="n" s="10">
         <v>82.5</v>
@@ -45443,13 +45443,13 @@
         <v>83.8</v>
       </c>
       <c r="GH44" t="n" s="10">
-        <v>84.2</v>
+        <v>84.3</v>
       </c>
       <c r="GI44" t="n" s="10">
         <v>84.8</v>
       </c>
       <c r="GJ44" t="n" s="10">
-        <v>85.3</v>
+        <v>85.4</v>
       </c>
       <c r="GK44" t="n" s="10">
         <v>85.9</v>
@@ -45458,13 +45458,13 @@
         <v>86.5</v>
       </c>
       <c r="GM44" t="n" s="10">
-        <v>86.9</v>
+        <v>87.0</v>
       </c>
       <c r="GN44" t="n" s="10">
-        <v>87.4</v>
+        <v>87.5</v>
       </c>
       <c r="GO44" t="n" s="10">
-        <v>88.0</v>
+        <v>88.1</v>
       </c>
       <c r="GP44" t="n" s="10">
         <v>88.6</v>
@@ -45473,10 +45473,10 @@
         <v>89.2</v>
       </c>
       <c r="GR44" t="n" s="10">
-        <v>89.6</v>
+        <v>89.7</v>
       </c>
       <c r="GS44" t="n" s="10">
-        <v>90.0</v>
+        <v>90.1</v>
       </c>
       <c r="GT44" t="n" s="10">
         <v>90.4</v>
@@ -45488,7 +45488,7 @@
         <v>91.0</v>
       </c>
       <c r="GW44" t="n" s="10">
-        <v>91.2</v>
+        <v>91.3</v>
       </c>
       <c r="GX44" t="n" s="10">
         <v>91.4</v>
@@ -45518,22 +45518,22 @@
         <v>77.9</v>
       </c>
       <c r="HG44" t="n" s="10">
-        <v>74.9</v>
+        <v>74.8</v>
       </c>
       <c r="HH44" t="n" s="10">
-        <v>72.0</v>
+        <v>71.9</v>
       </c>
       <c r="HI44" t="n" s="10">
-        <v>69.5</v>
+        <v>69.4</v>
       </c>
       <c r="HJ44" t="n" s="10">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="HK44" t="n" s="10">
-        <v>65.8</v>
+        <v>65.7</v>
       </c>
       <c r="HL44" t="n" s="10">
-        <v>64.8</v>
+        <v>64.7</v>
       </c>
       <c r="HM44" t="n" s="10">
         <v>64.4</v>
@@ -45584,13 +45584,13 @@
         <v>83.6</v>
       </c>
       <c r="IC44" t="n" s="10">
-        <v>85.0</v>
+        <v>85.1</v>
       </c>
       <c r="ID44" t="n" s="10">
         <v>86.5</v>
       </c>
       <c r="IE44" t="n" s="10">
-        <v>87.8</v>
+        <v>87.9</v>
       </c>
       <c r="IF44" t="n" s="10">
         <v>89.2</v>
@@ -45632,7 +45632,7 @@
         <v>94.9</v>
       </c>
       <c r="IS44" t="n" s="10">
-        <v>94.8</v>
+        <v>94.9</v>
       </c>
       <c r="IT44" t="n" s="10">
         <v>94.8</v>
@@ -45647,25 +45647,25 @@
         <v>94.3</v>
       </c>
       <c r="IX44" t="n" s="10">
-        <v>94.0</v>
+        <v>94.1</v>
       </c>
       <c r="IY44" t="n" s="10">
         <v>93.9</v>
       </c>
       <c r="IZ44" t="n" s="10">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="JA44" t="n" s="10">
-        <v>93.5</v>
+        <v>93.6</v>
       </c>
       <c r="JB44" t="n" s="10">
-        <v>93.3</v>
+        <v>93.4</v>
       </c>
       <c r="JC44" t="n" s="10">
         <v>93.2</v>
       </c>
       <c r="JD44" t="n" s="10">
-        <v>93.1</v>
+        <v>93.2</v>
       </c>
       <c r="JE44" t="n" s="10">
         <v>93.2</v>
@@ -45713,40 +45713,40 @@
         <v>100.7</v>
       </c>
       <c r="JT44" t="n" s="10">
-        <v>101.1</v>
+        <v>101.0</v>
       </c>
       <c r="JU44" t="n" s="10">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="JV44" t="n" s="10">
         <v>101.6</v>
       </c>
       <c r="JW44" t="n" s="10">
+        <v>101.7</v>
+      </c>
+      <c r="JX44" t="n" s="10">
         <v>101.8</v>
       </c>
-      <c r="JX44" t="n" s="10">
-        <v>101.9</v>
-      </c>
       <c r="JY44" t="n" s="10">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="JZ44" t="n" s="10">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="KA44" t="n" s="10">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="KB44" t="n" s="10">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="KC44" t="n" s="10">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="KD44" t="n" s="10">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="KE44" t="n" s="10">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="KF44" t="n" s="10">
         <v>100.5</v>
@@ -45761,7 +45761,7 @@
         <v>100.4</v>
       </c>
       <c r="KJ44" t="n" s="10">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="KK44" t="n" s="10">
         <v>100.6</v>
@@ -45770,10 +45770,10 @@
         <v>100.8</v>
       </c>
       <c r="KM44" t="n" s="10">
-        <v>101.1</v>
+        <v>101.0</v>
       </c>
       <c r="KN44" t="n" s="10">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="KO44" t="n" s="10">
         <v>101.4</v>
@@ -45818,175 +45818,175 @@
         <v>102.4</v>
       </c>
       <c r="LC44" t="n" s="10">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="LD44" t="n" s="10">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="LE44" t="n" s="10">
+        <v>103.9</v>
+      </c>
+      <c r="LF44" t="n" s="10">
+        <v>104.5</v>
+      </c>
+      <c r="LG44" t="n" s="10">
+        <v>105.1</v>
+      </c>
+      <c r="LH44" t="n" s="10">
+        <v>105.8</v>
+      </c>
+      <c r="LI44" t="n" s="10">
+        <v>106.5</v>
+      </c>
+      <c r="LJ44" t="n" s="10">
+        <v>107.0</v>
+      </c>
+      <c r="LK44" t="n" s="10">
+        <v>107.4</v>
+      </c>
+      <c r="LL44" t="n" s="10">
+        <v>107.5</v>
+      </c>
+      <c r="LM44" t="n" s="10">
+        <v>107.4</v>
+      </c>
+      <c r="LN44" t="n" s="10">
+        <v>107.0</v>
+      </c>
+      <c r="LO44" t="n" s="10">
+        <v>106.5</v>
+      </c>
+      <c r="LP44" t="n" s="10">
+        <v>106.0</v>
+      </c>
+      <c r="LQ44" t="n" s="10">
+        <v>105.4</v>
+      </c>
+      <c r="LR44" t="n" s="10">
+        <v>104.6</v>
+      </c>
+      <c r="LS44" t="n" s="10">
         <v>103.7</v>
       </c>
-      <c r="LF44" t="n" s="10">
-        <v>104.3</v>
-      </c>
-      <c r="LG44" t="n" s="10">
-        <v>105.0</v>
-      </c>
-      <c r="LH44" t="n" s="10">
-        <v>105.7</v>
-      </c>
-      <c r="LI44" t="n" s="10">
-        <v>106.6</v>
-      </c>
-      <c r="LJ44" t="n" s="10">
-        <v>107.2</v>
-      </c>
-      <c r="LK44" t="n" s="10">
-        <v>107.7</v>
-      </c>
-      <c r="LL44" t="n" s="10">
-        <v>108.0</v>
-      </c>
-      <c r="LM44" t="n" s="10">
-        <v>108.0</v>
-      </c>
-      <c r="LN44" t="n" s="10">
-        <v>107.7</v>
-      </c>
-      <c r="LO44" t="n" s="10">
-        <v>107.3</v>
-      </c>
-      <c r="LP44" t="n" s="10">
-        <v>106.9</v>
-      </c>
-      <c r="LQ44" t="n" s="10">
-        <v>106.3</v>
-      </c>
-      <c r="LR44" t="n" s="10">
-        <v>105.6</v>
-      </c>
-      <c r="LS44" t="n" s="10">
-        <v>104.5</v>
-      </c>
       <c r="LT44" t="n" s="10">
-        <v>103.4</v>
+        <v>102.7</v>
       </c>
       <c r="LU44" t="n" s="10">
-        <v>102.2</v>
+        <v>101.7</v>
       </c>
       <c r="LV44" t="n" s="10">
-        <v>101.2</v>
+        <v>100.7</v>
       </c>
       <c r="LW44" t="n" s="10">
-        <v>100.3</v>
+        <v>100.0</v>
       </c>
       <c r="LX44" t="n" s="10">
-        <v>99.2</v>
+        <v>99.1</v>
       </c>
       <c r="LY44" t="n" s="10">
         <v>98.2</v>
       </c>
       <c r="LZ44" t="n" s="10">
-        <v>97.2</v>
+        <v>97.4</v>
       </c>
       <c r="MA44" t="n" s="10">
-        <v>96.5</v>
+        <v>96.7</v>
       </c>
       <c r="MB44" t="n" s="10">
-        <v>95.8</v>
+        <v>96.1</v>
       </c>
       <c r="MC44" t="n" s="10">
-        <v>95.1</v>
+        <v>95.4</v>
       </c>
       <c r="MD44" t="n" s="10">
-        <v>94.4</v>
+        <v>94.6</v>
       </c>
       <c r="ME44" t="n" s="10">
-        <v>93.4</v>
+        <v>93.5</v>
       </c>
       <c r="MF44" t="n" s="10">
-        <v>92.1</v>
+        <v>92.2</v>
       </c>
       <c r="MG44" t="n" s="10">
-        <v>90.5</v>
+        <v>90.6</v>
       </c>
       <c r="MH44" t="n" s="10">
-        <v>88.5</v>
+        <v>88.6</v>
       </c>
       <c r="MI44" t="n" s="10">
-        <v>86.3</v>
+        <v>86.4</v>
       </c>
       <c r="MJ44" t="n" s="10">
-        <v>84.1</v>
+        <v>84.2</v>
       </c>
       <c r="MK44" t="n" s="10">
-        <v>82.1</v>
+        <v>82.2</v>
       </c>
       <c r="ML44" t="n" s="10">
-        <v>80.3</v>
+        <v>80.4</v>
       </c>
       <c r="MM44" t="n" s="10">
-        <v>78.5</v>
+        <v>78.7</v>
       </c>
       <c r="MN44" t="n" s="10">
-        <v>77.1</v>
+        <v>77.2</v>
       </c>
       <c r="MO44" t="n" s="10">
-        <v>76.2</v>
+        <v>76.4</v>
       </c>
       <c r="MP44" t="n" s="10">
+        <v>76.0</v>
+      </c>
+      <c r="MQ44" t="n" s="10">
         <v>75.8</v>
       </c>
-      <c r="MQ44" t="n" s="10">
-        <v>75.6</v>
-      </c>
       <c r="MR44" t="n" s="10">
-        <v>75.7</v>
+        <v>75.9</v>
       </c>
       <c r="MS44" t="n" s="10">
-        <v>76.0</v>
+        <v>76.1</v>
       </c>
       <c r="MT44" t="n" s="10">
-        <v>76.2</v>
+        <v>76.3</v>
       </c>
       <c r="MU44" t="n" s="10">
-        <v>76.3</v>
+        <v>76.6</v>
       </c>
       <c r="MV44" t="n" s="10">
-        <v>76.2</v>
+        <v>76.7</v>
       </c>
       <c r="MW44" t="n" s="10">
-        <v>76.2</v>
+        <v>76.5</v>
       </c>
       <c r="MX44" t="n" s="10">
         <v>76.0</v>
       </c>
       <c r="MY44" t="n" s="10">
-        <v>75.6</v>
+        <v>75.4</v>
       </c>
       <c r="MZ44" t="n" s="10">
-        <v>74.5</v>
+        <v>74.4</v>
       </c>
       <c r="NA44" t="n" s="10">
-        <v>72.9</v>
+        <v>72.8</v>
       </c>
       <c r="NB44" t="n" s="10">
-        <v>71.0</v>
+        <v>70.3</v>
       </c>
       <c r="NC44" t="n" s="10">
-        <v>69.0</v>
+        <v>67.7</v>
       </c>
       <c r="ND44" t="n" s="10">
-        <v>67.1</v>
+        <v>64.8</v>
       </c>
       <c r="NE44" t="n" s="10">
-        <v>65.3</v>
-      </c>
-      <c r="NF44" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="NG44" t="s" s="10">
-        <v>52</v>
+        <v>61.8</v>
+      </c>
+      <c r="NF44" t="n" s="10">
+        <v>58.7</v>
+      </c>
+      <c r="NG44" t="n" s="10">
+        <v>55.6</v>
       </c>
       <c r="NH44" t="s" s="10">
         <v>52</v>
@@ -46084,7 +46084,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 07.10.21 / 10:03:11&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.12.21 / 10:58:15&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>